--- a/pyloghub/sample_data/shipmentAnalyzerReverse.xlsx
+++ b/pyloghub/sample_data/shipmentAnalyzerReverse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\log-hub\log_hub\sample_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\log-hub-python\pyloghub\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96F8B04-8185-40BE-B477-DF7188EA3DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A6D2C3-473A-4DAC-A17F-0DAF2DC28415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{45C245A8-4959-42A3-BACC-E204F4B4BB1C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{45C245A8-4959-42A3-BACC-E204F4B4BB1C}"/>
   </bookViews>
   <sheets>
     <sheet name="shipments" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="253">
   <si>
     <t>*</t>
   </si>
@@ -795,6 +795,9 @@
   </si>
   <si>
     <t>factor</t>
+  </si>
+  <si>
+    <t>Container</t>
   </si>
 </sst>
 </file>
@@ -865,13 +868,13 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -931,8 +934,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DFE0849B-CC0B-4961-A159-EF9DCF7A0494}" name="Table38" displayName="Table38" ref="A1:I4" totalsRowShown="0">
-  <autoFilter ref="A1:I4" xr:uid="{DFE0849B-CC0B-4961-A159-EF9DCF7A0494}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DFE0849B-CC0B-4961-A159-EF9DCF7A0494}" name="Table38" displayName="Table38" ref="A1:I5" totalsRowShown="0">
+  <autoFilter ref="A1:I5" xr:uid="{DFE0849B-CC0B-4961-A159-EF9DCF7A0494}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BAEACE6A-5270-49FF-8B35-9B2EBBDD06AF}" name="id"/>
     <tableColumn id="9" xr3:uid="{587147DC-5CA8-4676-8322-FC43DC2895CC}" name="truckShipPlaneType"/>
@@ -966,9 +969,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1006,7 +1009,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1112,7 +1115,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1254,7 +1257,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1262,7 +1265,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="5">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1275,16 +1278,30 @@
     <we:reference id="WA104381181" version="2.0.0.2" store="" storeType="OMEX"/>
   </we:alternateReferences>
   <we:properties>
+    <we:property name="15_2consolidation" value="&quot;f32e4fd2-d4ab4730-68895df2&quot;"/>
     <we:property name="15_2costAdjustment" value="&quot;7be6d701-183196b0-cad8f101&quot;"/>
     <we:property name="15_2shipments" value="&quot;775854ea-4bd70cb4-bc789afc&quot;"/>
-    <we:property name="15_2consolidation" value="&quot;f32e4fd2-d4ab4730-68895df2&quot;"/>
     <we:property name="15_2surcharges" value="&quot;0f4f92c2-afe7e5a6-2c6df75c&quot;"/>
+    <we:property name="2_10shipments" value="&quot;f89f7b46-a29717ad-4a0abacd&quot;"/>
+    <we:property name="2_10costAdjustment" value="&quot;f5be63a5-ce1aa8e5-82d840bc&quot;"/>
+    <we:property name="2_10consolidation" value="&quot;2c0b2bd7-9a542398-c4a916a4&quot;"/>
+    <we:property name="2_10surcharges" value="&quot;513ff931-f8e614a8-93a4105b&quot;"/>
+    <we:property name="2_10expendedShipments" value="&quot;8d70dbe4-fd713b8a-39009276&quot;"/>
+    <we:property name="2_10consolidatedShipments" value="&quot;57b41f11-9ee59b88-7c3694a1&quot;"/>
+    <we:property name="2_10parameters" value="&quot;527a051d-4a865add-f55d7f1a&quot;"/>
   </we:properties>
   <we:bindings>
     <we:binding id="7be6d701-183196b0-cad8f101" type="table" appref="{1E17BB47-E250-40A4-8B4B-F9E6ABFCAD12}"/>
     <we:binding id="775854ea-4bd70cb4-bc789afc" type="table" appref="{928B7DBE-AE8D-40E3-AF51-0DEEA83BA909}"/>
     <we:binding id="f32e4fd2-d4ab4730-68895df2" type="table" appref="{CA280CF4-B85A-4EAA-80B0-E3E69E5CA486}"/>
     <we:binding id="0f4f92c2-afe7e5a6-2c6df75c" type="table" appref="{1DCBCC5D-9E46-43B2-9C86-CFDCF2CD9494}"/>
+    <we:binding id="f89f7b46-a29717ad-4a0abacd" type="table" appref="{351B9DBB-1CBA-4DBD-B129-F34637623C1F}"/>
+    <we:binding id="f5be63a5-ce1aa8e5-82d840bc" type="table" appref="{DEAD9C16-6E2F-43CD-9A4A-352C68E3703C}"/>
+    <we:binding id="2c0b2bd7-9a542398-c4a916a4" type="table" appref="{83B2DDF0-79FD-4271-BC95-8FCAA188C87B}"/>
+    <we:binding id="513ff931-f8e614a8-93a4105b" type="table" appref="{D745A3CC-2558-4528-A170-AEB2FCDDD6F1}"/>
+    <we:binding id="8d70dbe4-fd713b8a-39009276" type="table" appref="{5A855AA6-8D5E-43D8-9521-5C2C9FBE86C1}"/>
+    <we:binding id="57b41f11-9ee59b88-7c3694a1" type="table" appref="{CC81E68B-16A8-4074-9C60-887243634013}"/>
+    <we:binding id="527a051d-4a865add-f55d7f1a" type="table" appref="{2D55D570-2511-4349-A5C7-AE317B625859}"/>
   </we:bindings>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </we:webextension>
@@ -1294,38 +1311,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF662E8-949D-4A1E-B592-D5282CC1957E}">
   <dimension ref="A1:W237"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:W1"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>220</v>
       </c>
@@ -1396,7 +1413,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1446,7 +1463,7 @@
         <v>10</v>
       </c>
       <c r="Q2">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="R2">
         <v>50</v>
@@ -1467,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1517,7 +1534,7 @@
         <v>10</v>
       </c>
       <c r="Q3">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R3">
         <v>42</v>
@@ -1538,7 +1555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1588,7 +1605,7 @@
         <v>10</v>
       </c>
       <c r="Q4">
-        <v>7400</v>
+        <v>3700</v>
       </c>
       <c r="R4">
         <v>20</v>
@@ -1609,7 +1626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1659,7 +1676,7 @@
         <v>10</v>
       </c>
       <c r="Q5">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="R5">
         <v>25</v>
@@ -1680,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1730,13 +1747,13 @@
         <v>10</v>
       </c>
       <c r="Q6">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="R6">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="S6">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="T6">
         <v>50000</v>
@@ -1751,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1801,7 +1818,7 @@
         <v>10</v>
       </c>
       <c r="Q7">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R7">
         <v>45</v>
@@ -1822,7 +1839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1872,7 +1889,7 @@
         <v>10</v>
       </c>
       <c r="Q8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="R8">
         <v>8</v>
@@ -1893,7 +1910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1943,7 +1960,7 @@
         <v>10</v>
       </c>
       <c r="Q9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="R9">
         <v>9</v>
@@ -1964,7 +1981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2008,13 +2025,13 @@
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P10" t="s">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="R10">
         <v>38</v>
@@ -2035,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2085,7 +2102,7 @@
         <v>10</v>
       </c>
       <c r="Q11">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="R11">
         <v>21</v>
@@ -2106,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2156,7 +2173,7 @@
         <v>10</v>
       </c>
       <c r="Q12">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="R12">
         <v>25</v>
@@ -2177,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2227,7 +2244,7 @@
         <v>10</v>
       </c>
       <c r="Q13">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="R13">
         <v>50</v>
@@ -2248,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2298,7 +2315,7 @@
         <v>10</v>
       </c>
       <c r="Q14">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="R14">
         <v>35</v>
@@ -2319,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2369,7 +2386,7 @@
         <v>10</v>
       </c>
       <c r="Q15">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="R15">
         <v>55</v>
@@ -2390,7 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2440,7 +2457,7 @@
         <v>10</v>
       </c>
       <c r="Q16">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R16">
         <v>42</v>
@@ -2461,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2511,7 +2528,7 @@
         <v>10</v>
       </c>
       <c r="Q17">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="R17">
         <v>21</v>
@@ -2532,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2582,7 +2599,7 @@
         <v>10</v>
       </c>
       <c r="Q18">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="R18">
         <v>30</v>
@@ -2603,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2653,7 +2670,7 @@
         <v>10</v>
       </c>
       <c r="Q19">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="R19">
         <v>30</v>
@@ -2674,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2724,7 +2741,7 @@
         <v>10</v>
       </c>
       <c r="Q20">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="R20">
         <v>21</v>
@@ -2745,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2795,7 +2812,7 @@
         <v>10</v>
       </c>
       <c r="Q21">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="R21">
         <v>55</v>
@@ -2816,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2866,7 +2883,7 @@
         <v>10</v>
       </c>
       <c r="Q22">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="R22">
         <v>24</v>
@@ -2887,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2937,7 +2954,7 @@
         <v>10</v>
       </c>
       <c r="Q23">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R23">
         <v>45</v>
@@ -2958,7 +2975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3008,7 +3025,7 @@
         <v>10</v>
       </c>
       <c r="Q24">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="R24">
         <v>8</v>
@@ -3029,7 +3046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3079,7 +3096,7 @@
         <v>10</v>
       </c>
       <c r="Q25">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="R25">
         <v>9</v>
@@ -3100,7 +3117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3150,13 +3167,13 @@
         <v>10</v>
       </c>
       <c r="Q26">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="R26">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="S26">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T26">
         <v>35000</v>
@@ -3171,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3221,13 +3238,13 @@
         <v>10</v>
       </c>
       <c r="Q27">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="R27">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="S27">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="T27">
         <v>30000</v>
@@ -3242,7 +3259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3292,7 +3309,7 @@
         <v>10</v>
       </c>
       <c r="Q28">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="R28">
         <v>30</v>
@@ -3313,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3363,7 +3380,7 @@
         <v>10</v>
       </c>
       <c r="Q29">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="R29">
         <v>21</v>
@@ -3384,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3434,7 +3451,7 @@
         <v>10</v>
       </c>
       <c r="Q30">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="R30">
         <v>30</v>
@@ -3455,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3505,7 +3522,7 @@
         <v>10</v>
       </c>
       <c r="Q31">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="R31">
         <v>52</v>
@@ -3526,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3570,13 +3587,13 @@
         <v>1</v>
       </c>
       <c r="O32" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P32" t="s">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="R32">
         <v>48</v>
@@ -3597,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3647,13 +3664,13 @@
         <v>10</v>
       </c>
       <c r="Q33">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="R33">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="S33">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="T33">
         <v>44000</v>
@@ -3668,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3718,7 +3735,7 @@
         <v>10</v>
       </c>
       <c r="Q34">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="R34">
         <v>45</v>
@@ -3739,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3783,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P35" t="s">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="R35">
         <v>45</v>
@@ -3810,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3854,13 +3871,13 @@
         <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P36" t="s">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R36">
         <v>43</v>
@@ -3881,7 +3898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3931,7 +3948,7 @@
         <v>10</v>
       </c>
       <c r="Q37">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R37">
         <v>43</v>
@@ -3952,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3996,19 +4013,19 @@
         <v>1</v>
       </c>
       <c r="O38" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P38" t="s">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>23000</v>
+        <v>9500</v>
       </c>
       <c r="R38">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="S38">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="T38">
         <v>50000</v>
@@ -4023,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4073,13 +4090,13 @@
         <v>10</v>
       </c>
       <c r="Q39">
-        <v>23000</v>
+        <v>9500</v>
       </c>
       <c r="R39">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="S39">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="T39">
         <v>50000</v>
@@ -4094,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4138,19 +4155,19 @@
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P40" t="s">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="R40">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="S40">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="T40">
         <v>23000</v>
@@ -4165,7 +4182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4215,13 +4232,13 @@
         <v>10</v>
       </c>
       <c r="Q41">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="R41">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="S41">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="T41">
         <v>23000</v>
@@ -4236,7 +4253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4280,13 +4297,13 @@
         <v>1</v>
       </c>
       <c r="O42" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P42" t="s">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="R42">
         <v>60</v>
@@ -4307,7 +4324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4357,7 +4374,7 @@
         <v>10</v>
       </c>
       <c r="Q43">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="R43">
         <v>50</v>
@@ -4378,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4422,13 +4439,13 @@
         <v>1</v>
       </c>
       <c r="O44" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P44" t="s">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="R44">
         <v>50</v>
@@ -4449,7 +4466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4499,7 +4516,7 @@
         <v>10</v>
       </c>
       <c r="Q45">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="R45">
         <v>50</v>
@@ -4520,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4570,7 +4587,7 @@
         <v>10</v>
       </c>
       <c r="Q46">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="R46">
         <v>70</v>
@@ -4591,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4635,19 +4652,19 @@
         <v>1</v>
       </c>
       <c r="O47" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P47" t="s">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="R47">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="S47">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="T47">
         <v>14500</v>
@@ -4662,7 +4679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4712,13 +4729,13 @@
         <v>10</v>
       </c>
       <c r="Q48">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="R48">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S48">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T48">
         <v>14500</v>
@@ -4733,7 +4750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4783,7 +4800,7 @@
         <v>10</v>
       </c>
       <c r="Q49">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="R49">
         <v>22</v>
@@ -4804,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4854,7 +4871,7 @@
         <v>10</v>
       </c>
       <c r="Q50">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="R50">
         <v>38</v>
@@ -4875,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4925,7 +4942,7 @@
         <v>10</v>
       </c>
       <c r="Q51">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="R51">
         <v>28</v>
@@ -4946,7 +4963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4990,19 +5007,19 @@
         <v>1</v>
       </c>
       <c r="O52" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P52" t="s">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="R52">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="S52">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="T52">
         <v>15600</v>
@@ -5017,7 +5034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5067,13 +5084,13 @@
         <v>10</v>
       </c>
       <c r="Q53">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="R53">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="S53">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="T53">
         <v>15600</v>
@@ -5088,7 +5105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5138,13 +5155,13 @@
         <v>10</v>
       </c>
       <c r="Q54">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="R54">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="S54">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="T54">
         <v>41000</v>
@@ -5159,7 +5176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5209,7 +5226,7 @@
         <v>10</v>
       </c>
       <c r="Q55">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="R55">
         <v>38</v>
@@ -5230,7 +5247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5280,7 +5297,7 @@
         <v>10</v>
       </c>
       <c r="Q56">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="R56">
         <v>15</v>
@@ -5301,7 +5318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5351,7 +5368,7 @@
         <v>10</v>
       </c>
       <c r="Q57">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="R57">
         <v>43</v>
@@ -5372,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5422,7 +5439,7 @@
         <v>10</v>
       </c>
       <c r="Q58">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="R58">
         <v>43</v>
@@ -5443,7 +5460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5493,7 +5510,7 @@
         <v>10</v>
       </c>
       <c r="Q59">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="R59">
         <v>25</v>
@@ -5514,7 +5531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5564,13 +5581,13 @@
         <v>10</v>
       </c>
       <c r="Q60">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="R60">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="S60">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="T60">
         <v>19000</v>
@@ -5585,7 +5602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5629,19 +5646,19 @@
         <v>1</v>
       </c>
       <c r="O61" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P61" t="s">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="R61">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="S61">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="T61">
         <v>19000</v>
@@ -5656,7 +5673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5706,13 +5723,13 @@
         <v>10</v>
       </c>
       <c r="Q62">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="R62">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="S62">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="T62">
         <v>19000</v>
@@ -5727,7 +5744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5771,19 +5788,19 @@
         <v>1</v>
       </c>
       <c r="O63" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P63" t="s">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="R63">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="S63">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="T63">
         <v>25000</v>
@@ -5798,7 +5815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5848,7 +5865,7 @@
         <v>10</v>
       </c>
       <c r="Q64">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="R64">
         <v>60</v>
@@ -5869,7 +5886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5913,19 +5930,19 @@
         <v>1</v>
       </c>
       <c r="O65" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P65" t="s">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="R65">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="S65">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="T65">
         <v>10000</v>
@@ -5940,7 +5957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5984,13 +6001,13 @@
         <v>1</v>
       </c>
       <c r="O66" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P66" t="s">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="R66">
         <v>40</v>
@@ -6011,7 +6028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6061,7 +6078,7 @@
         <v>10</v>
       </c>
       <c r="Q67">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="R67">
         <v>40</v>
@@ -6082,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6132,7 +6149,7 @@
         <v>10</v>
       </c>
       <c r="Q68">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R68">
         <v>42</v>
@@ -6153,7 +6170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6203,7 +6220,7 @@
         <v>10</v>
       </c>
       <c r="Q69">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R69">
         <v>42</v>
@@ -6224,7 +6241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6274,7 +6291,7 @@
         <v>10</v>
       </c>
       <c r="Q70">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R70">
         <v>42</v>
@@ -6295,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6345,7 +6362,7 @@
         <v>10</v>
       </c>
       <c r="Q71">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="R71">
         <v>20</v>
@@ -6366,7 +6383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6416,7 +6433,7 @@
         <v>10</v>
       </c>
       <c r="Q72">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="R72">
         <v>36</v>
@@ -6437,7 +6454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6487,7 +6504,7 @@
         <v>10</v>
       </c>
       <c r="Q73">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R73">
         <v>45</v>
@@ -6508,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6558,7 +6575,7 @@
         <v>10</v>
       </c>
       <c r="Q74">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="R74">
         <v>8</v>
@@ -6579,7 +6596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6623,13 +6640,13 @@
         <v>1</v>
       </c>
       <c r="O75" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P75" t="s">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>12500</v>
+        <v>6250</v>
       </c>
       <c r="R75">
         <v>38</v>
@@ -6650,7 +6667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6700,13 +6717,13 @@
         <v>10</v>
       </c>
       <c r="Q76">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="R76">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="S76">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="T76">
         <v>35000</v>
@@ -6721,7 +6738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6765,19 +6782,19 @@
         <v>1</v>
       </c>
       <c r="O77" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P77" t="s">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>20000</v>
+        <v>8800</v>
       </c>
       <c r="R77">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="S77">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="T77">
         <v>35000</v>
@@ -6792,7 +6809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6842,13 +6859,13 @@
         <v>10</v>
       </c>
       <c r="Q78">
-        <v>20000</v>
+        <v>7200</v>
       </c>
       <c r="R78">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="S78">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="T78">
         <v>35000</v>
@@ -6863,7 +6880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6913,7 +6930,7 @@
         <v>10</v>
       </c>
       <c r="Q79">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="R79">
         <v>30</v>
@@ -6934,7 +6951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6978,19 +6995,19 @@
         <v>1</v>
       </c>
       <c r="O80" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P80" t="s">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>20500</v>
+        <v>10250</v>
       </c>
       <c r="R80">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="S80">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="T80">
         <v>40000</v>
@@ -7005,7 +7022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7055,7 +7072,7 @@
         <v>10</v>
       </c>
       <c r="Q81">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="R81">
         <v>36</v>
@@ -7076,7 +7093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7126,7 +7143,7 @@
         <v>10</v>
       </c>
       <c r="Q82">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="R82">
         <v>36</v>
@@ -7147,7 +7164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7197,7 +7214,7 @@
         <v>10</v>
       </c>
       <c r="Q83">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="R83">
         <v>30</v>
@@ -7218,7 +7235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7268,7 +7285,7 @@
         <v>10</v>
       </c>
       <c r="Q84">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="R84">
         <v>45</v>
@@ -7289,7 +7306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7339,7 +7356,7 @@
         <v>10</v>
       </c>
       <c r="Q85">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="R85">
         <v>40</v>
@@ -7360,7 +7377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7410,7 +7427,7 @@
         <v>10</v>
       </c>
       <c r="Q86">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="R86">
         <v>31</v>
@@ -7431,7 +7448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7481,7 +7498,7 @@
         <v>10</v>
       </c>
       <c r="Q87">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="R87">
         <v>52</v>
@@ -7502,7 +7519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7546,13 +7563,13 @@
         <v>1</v>
       </c>
       <c r="O88" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P88" t="s">
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="R88">
         <v>52</v>
@@ -7573,7 +7590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7623,7 +7640,7 @@
         <v>10</v>
       </c>
       <c r="Q89">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R89">
         <v>38</v>
@@ -7644,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7688,13 +7705,13 @@
         <v>1</v>
       </c>
       <c r="O90" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P90" t="s">
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="R90">
         <v>52</v>
@@ -7715,7 +7732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7765,7 +7782,7 @@
         <v>10</v>
       </c>
       <c r="Q91">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R91">
         <v>51</v>
@@ -7786,7 +7803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7830,13 +7847,13 @@
         <v>1</v>
       </c>
       <c r="O92" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P92" t="s">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R92">
         <v>51</v>
@@ -7857,7 +7874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7901,13 +7918,13 @@
         <v>1</v>
       </c>
       <c r="O93" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P93" t="s">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="R93">
         <v>60</v>
@@ -7928,7 +7945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7978,7 +7995,7 @@
         <v>10</v>
       </c>
       <c r="Q94">
-        <v>13600</v>
+        <v>6800</v>
       </c>
       <c r="R94">
         <v>39</v>
@@ -7999,7 +8016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8043,13 +8060,13 @@
         <v>1</v>
       </c>
       <c r="O95" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P95" t="s">
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="R95">
         <v>35</v>
@@ -8070,7 +8087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8120,7 +8137,7 @@
         <v>10</v>
       </c>
       <c r="Q96">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="R96">
         <v>35</v>
@@ -8141,7 +8158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8191,7 +8208,7 @@
         <v>10</v>
       </c>
       <c r="Q97">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R97">
         <v>42</v>
@@ -8212,7 +8229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8262,7 +8279,7 @@
         <v>10</v>
       </c>
       <c r="Q98">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="R98">
         <v>10</v>
@@ -8283,7 +8300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8327,19 +8344,19 @@
         <v>1</v>
       </c>
       <c r="O99" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P99" t="s">
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="R99">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="S99">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="T99">
         <v>45000</v>
@@ -8354,7 +8371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8404,13 +8421,13 @@
         <v>10</v>
       </c>
       <c r="Q100">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="R100">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="S100">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="T100">
         <v>45000</v>
@@ -8425,7 +8442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8475,7 +8492,7 @@
         <v>10</v>
       </c>
       <c r="Q101">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="R101">
         <v>50</v>
@@ -8496,7 +8513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8540,13 +8557,13 @@
         <v>1</v>
       </c>
       <c r="O102" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P102" t="s">
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="R102">
         <v>50</v>
@@ -8567,7 +8584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -8617,7 +8634,7 @@
         <v>10</v>
       </c>
       <c r="Q103">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="R103">
         <v>20</v>
@@ -8638,7 +8655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -8688,7 +8705,7 @@
         <v>10</v>
       </c>
       <c r="Q104">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="R104">
         <v>33</v>
@@ -8709,7 +8726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -8753,19 +8770,19 @@
         <v>1</v>
       </c>
       <c r="O105" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P105" t="s">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="R105">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="S105">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="T105">
         <v>35000</v>
@@ -8780,7 +8797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -8830,13 +8847,13 @@
         <v>10</v>
       </c>
       <c r="Q106">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="R106">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="S106">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="T106">
         <v>35000</v>
@@ -8851,7 +8868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -8895,13 +8912,13 @@
         <v>1</v>
       </c>
       <c r="O107" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P107" t="s">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="R107">
         <v>52</v>
@@ -8922,7 +8939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -8972,7 +8989,7 @@
         <v>10</v>
       </c>
       <c r="Q108">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="R108">
         <v>16</v>
@@ -8993,7 +9010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -9037,13 +9054,13 @@
         <v>1</v>
       </c>
       <c r="O109" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P109" t="s">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="R109">
         <v>60</v>
@@ -9064,7 +9081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -9114,7 +9131,7 @@
         <v>10</v>
       </c>
       <c r="Q110">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="R110">
         <v>60</v>
@@ -9135,7 +9152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9185,7 +9202,7 @@
         <v>10</v>
       </c>
       <c r="Q111">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="R111">
         <v>42</v>
@@ -9206,7 +9223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9256,7 +9273,7 @@
         <v>10</v>
       </c>
       <c r="Q112">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="R112">
         <v>50</v>
@@ -9277,7 +9294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9327,7 +9344,7 @@
         <v>10</v>
       </c>
       <c r="Q113">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="R113">
         <v>30</v>
@@ -9348,7 +9365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9392,13 +9409,13 @@
         <v>1</v>
       </c>
       <c r="O114" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P114" t="s">
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="R114">
         <v>42</v>
@@ -9419,7 +9436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9469,7 +9486,7 @@
         <v>10</v>
       </c>
       <c r="Q115">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="R115">
         <v>25</v>
@@ -9490,7 +9507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9540,7 +9557,7 @@
         <v>10</v>
       </c>
       <c r="Q116">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="R116">
         <v>38</v>
@@ -9561,7 +9578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -9611,7 +9628,7 @@
         <v>10</v>
       </c>
       <c r="Q117">
-        <v>7400</v>
+        <v>3700</v>
       </c>
       <c r="R117">
         <v>20</v>
@@ -9632,7 +9649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -9682,7 +9699,7 @@
         <v>10</v>
       </c>
       <c r="Q118">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="R118">
         <v>25</v>
@@ -9703,7 +9720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -9747,13 +9764,13 @@
         <v>1</v>
       </c>
       <c r="O119" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P119" t="s">
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="R119">
         <v>38</v>
@@ -9774,7 +9791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -9824,7 +9841,7 @@
         <v>10</v>
       </c>
       <c r="Q120">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="R120">
         <v>21</v>
@@ -9845,7 +9862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -9895,7 +9912,7 @@
         <v>10</v>
       </c>
       <c r="Q121">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="R121">
         <v>25</v>
@@ -9916,7 +9933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -9966,7 +9983,7 @@
         <v>10</v>
       </c>
       <c r="Q122">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="R122">
         <v>50</v>
@@ -9987,7 +10004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -10037,7 +10054,7 @@
         <v>10</v>
       </c>
       <c r="Q123">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="R123">
         <v>35</v>
@@ -10058,7 +10075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -10108,7 +10125,7 @@
         <v>10</v>
       </c>
       <c r="Q124">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="R124">
         <v>24</v>
@@ -10129,7 +10146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -10179,7 +10196,7 @@
         <v>10</v>
       </c>
       <c r="Q125">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R125">
         <v>45</v>
@@ -10200,7 +10217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -10250,7 +10267,7 @@
         <v>10</v>
       </c>
       <c r="Q126">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="R126">
         <v>40</v>
@@ -10271,7 +10288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -10321,7 +10338,7 @@
         <v>10</v>
       </c>
       <c r="Q127">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="R127">
         <v>40</v>
@@ -10342,7 +10359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -10392,7 +10409,7 @@
         <v>10</v>
       </c>
       <c r="Q128">
-        <v>17500</v>
+        <v>8750</v>
       </c>
       <c r="R128">
         <v>52</v>
@@ -10413,7 +10430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -10457,19 +10474,19 @@
         <v>1</v>
       </c>
       <c r="O129" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P129" t="s">
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>36000</v>
+        <v>11800</v>
       </c>
       <c r="R129">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="S129">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="T129">
         <v>6000</v>
@@ -10484,7 +10501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -10528,19 +10545,19 @@
         <v>1</v>
       </c>
       <c r="O130" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P130" t="s">
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="R130">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="S130">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="T130">
         <v>6000</v>
@@ -10555,7 +10572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -10605,7 +10622,7 @@
         <v>10</v>
       </c>
       <c r="Q131">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R131">
         <v>40</v>
@@ -10626,7 +10643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -10670,13 +10687,13 @@
         <v>1</v>
       </c>
       <c r="O132" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P132" t="s">
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="R132">
         <v>55</v>
@@ -10697,7 +10714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -10747,7 +10764,7 @@
         <v>10</v>
       </c>
       <c r="Q133">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="R133">
         <v>22</v>
@@ -10768,7 +10785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -10812,19 +10829,19 @@
         <v>1</v>
       </c>
       <c r="O134" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P134" t="s">
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="R134">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="S134">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="T134">
         <v>16300</v>
@@ -10839,7 +10856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -10889,13 +10906,13 @@
         <v>10</v>
       </c>
       <c r="Q135">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="R135">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="S135">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="T135">
         <v>25000</v>
@@ -10910,7 +10927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -10960,7 +10977,7 @@
         <v>10</v>
       </c>
       <c r="Q136">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="R136">
         <v>18</v>
@@ -10981,7 +10998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -11031,7 +11048,7 @@
         <v>10</v>
       </c>
       <c r="Q137">
-        <v>11500</v>
+        <v>5750</v>
       </c>
       <c r="R137">
         <v>43</v>
@@ -11052,7 +11069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -11102,13 +11119,13 @@
         <v>10</v>
       </c>
       <c r="Q138">
-        <v>24500</v>
+        <v>12250</v>
       </c>
       <c r="R138">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S138">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T138">
         <v>1500</v>
@@ -11123,7 +11140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -11173,7 +11190,7 @@
         <v>10</v>
       </c>
       <c r="Q139">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="R139">
         <v>30</v>
@@ -11194,7 +11211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -11244,13 +11261,13 @@
         <v>10</v>
       </c>
       <c r="Q140">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="R140">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="S140">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="T140">
         <v>17000</v>
@@ -11265,7 +11282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -11309,19 +11326,19 @@
         <v>1</v>
       </c>
       <c r="O141" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P141" t="s">
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>19000</v>
+        <v>9650</v>
       </c>
       <c r="R141">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="S141">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T141">
         <v>70000</v>
@@ -11336,7 +11353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -11386,13 +11403,13 @@
         <v>10</v>
       </c>
       <c r="Q142">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="R142">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="S142">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="T142">
         <v>5000</v>
@@ -11407,7 +11424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -11451,19 +11468,19 @@
         <v>1</v>
       </c>
       <c r="O143" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P143" t="s">
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="R143">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="S143">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="T143">
         <v>25000</v>
@@ -11478,7 +11495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -11528,7 +11545,7 @@
         <v>10</v>
       </c>
       <c r="Q144">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="R144">
         <v>21</v>
@@ -11549,7 +11566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -11599,7 +11616,7 @@
         <v>10</v>
       </c>
       <c r="Q145">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="R145">
         <v>50</v>
@@ -11620,7 +11637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -11664,19 +11681,19 @@
         <v>1</v>
       </c>
       <c r="O146" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P146" t="s">
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>22500</v>
+        <v>11250</v>
       </c>
       <c r="R146">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="S146">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="T146">
         <v>12500</v>
@@ -11691,7 +11708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -11741,13 +11758,13 @@
         <v>10</v>
       </c>
       <c r="Q147">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="R147">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="S147">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="T147">
         <v>30000</v>
@@ -11762,7 +11779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -11806,19 +11823,19 @@
         <v>1</v>
       </c>
       <c r="O148" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P148" t="s">
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>20500</v>
+        <v>10250</v>
       </c>
       <c r="R148">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="S148">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="T148">
         <v>75000</v>
@@ -11833,7 +11850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -11883,7 +11900,7 @@
         <v>10</v>
       </c>
       <c r="Q149">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="R149">
         <v>46</v>
@@ -11904,7 +11921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -11948,13 +11965,13 @@
         <v>1</v>
       </c>
       <c r="O150" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P150" t="s">
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="R150">
         <v>46</v>
@@ -11975,7 +11992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -12025,7 +12042,7 @@
         <v>10</v>
       </c>
       <c r="Q151">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="R151">
         <v>25</v>
@@ -12046,7 +12063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -12090,19 +12107,19 @@
         <v>1</v>
       </c>
       <c r="O152" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P152" t="s">
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="R152">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="S152">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="T152">
         <v>45000</v>
@@ -12117,7 +12134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -12167,7 +12184,7 @@
         <v>10</v>
       </c>
       <c r="Q153">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="R153">
         <v>35</v>
@@ -12188,7 +12205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -12238,7 +12255,7 @@
         <v>10</v>
       </c>
       <c r="Q154">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="R154">
         <v>10</v>
@@ -12259,7 +12276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -12303,19 +12320,19 @@
         <v>1</v>
       </c>
       <c r="O155" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P155" t="s">
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="R155">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="S155">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="T155">
         <v>16000</v>
@@ -12330,7 +12347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -12380,7 +12397,7 @@
         <v>10</v>
       </c>
       <c r="Q156">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="R156">
         <v>33</v>
@@ -12401,7 +12418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -12445,19 +12462,19 @@
         <v>1</v>
       </c>
       <c r="O157" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P157" t="s">
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="R157">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="S157">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="T157">
         <v>16000</v>
@@ -12472,7 +12489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -12522,13 +12539,13 @@
         <v>10</v>
       </c>
       <c r="Q158">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="R158">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="S158">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="T158">
         <v>22000</v>
@@ -12543,7 +12560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -12593,7 +12610,7 @@
         <v>10</v>
       </c>
       <c r="Q159">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="R159">
         <v>35</v>
@@ -12614,7 +12631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -12664,7 +12681,7 @@
         <v>10</v>
       </c>
       <c r="Q160">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="R160">
         <v>20</v>
@@ -12685,7 +12702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -12735,7 +12752,7 @@
         <v>10</v>
       </c>
       <c r="Q161">
-        <v>13500</v>
+        <v>6750</v>
       </c>
       <c r="R161">
         <v>50</v>
@@ -12756,7 +12773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -12806,7 +12823,7 @@
         <v>10</v>
       </c>
       <c r="Q162">
-        <v>20500</v>
+        <v>10250</v>
       </c>
       <c r="R162">
         <v>65</v>
@@ -12827,7 +12844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -12871,19 +12888,19 @@
         <v>1</v>
       </c>
       <c r="O163" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P163" t="s">
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="R163">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="S163">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="T163">
         <v>35000</v>
@@ -12898,7 +12915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -12942,19 +12959,19 @@
         <v>1</v>
       </c>
       <c r="O164" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P164" t="s">
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="R164">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="S164">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="T164">
         <v>44000</v>
@@ -12969,7 +12986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -13019,7 +13036,7 @@
         <v>10</v>
       </c>
       <c r="Q165">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R165">
         <v>42</v>
@@ -13040,7 +13057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -13090,7 +13107,7 @@
         <v>10</v>
       </c>
       <c r="Q166">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="R166">
         <v>30</v>
@@ -13111,7 +13128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -13161,7 +13178,7 @@
         <v>10</v>
       </c>
       <c r="Q167">
-        <v>28000</v>
+        <v>1400</v>
       </c>
       <c r="R167">
         <v>50</v>
@@ -13182,7 +13199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -13232,7 +13249,7 @@
         <v>10</v>
       </c>
       <c r="Q168">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="R168">
         <v>10</v>
@@ -13253,7 +13270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -13303,7 +13320,7 @@
         <v>10</v>
       </c>
       <c r="Q169">
-        <v>5400</v>
+        <v>2700</v>
       </c>
       <c r="R169">
         <v>25</v>
@@ -13324,7 +13341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -13374,7 +13391,7 @@
         <v>10</v>
       </c>
       <c r="Q170">
-        <v>19500</v>
+        <v>9750</v>
       </c>
       <c r="R170">
         <v>85</v>
@@ -13395,7 +13412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -13445,7 +13462,7 @@
         <v>10</v>
       </c>
       <c r="Q171">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="R171">
         <v>10</v>
@@ -13466,7 +13483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -13516,7 +13533,7 @@
         <v>10</v>
       </c>
       <c r="Q172">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="R172">
         <v>36</v>
@@ -13537,7 +13554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -13587,7 +13604,7 @@
         <v>10</v>
       </c>
       <c r="Q173">
-        <v>3500</v>
+        <v>1750</v>
       </c>
       <c r="R173">
         <v>12</v>
@@ -13608,7 +13625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -13658,16 +13675,16 @@
         <v>10</v>
       </c>
       <c r="Q174">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="R174">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="S174">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="T174">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="U174">
         <v>2400</v>
@@ -13679,7 +13696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -13729,7 +13746,7 @@
         <v>10</v>
       </c>
       <c r="Q175">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="R175">
         <v>55</v>
@@ -13750,7 +13767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -13800,7 +13817,7 @@
         <v>10</v>
       </c>
       <c r="Q176">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="R176">
         <v>30</v>
@@ -13821,7 +13838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -13871,7 +13888,7 @@
         <v>10</v>
       </c>
       <c r="Q177">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="R177">
         <v>50</v>
@@ -13892,7 +13909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -13942,7 +13959,7 @@
         <v>10</v>
       </c>
       <c r="Q178">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="R178">
         <v>33</v>
@@ -13963,7 +13980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -14013,7 +14030,7 @@
         <v>10</v>
       </c>
       <c r="Q179">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="R179">
         <v>40</v>
@@ -14034,7 +14051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -14084,16 +14101,16 @@
         <v>10</v>
       </c>
       <c r="Q180">
-        <v>30000</v>
+        <v>15500</v>
       </c>
       <c r="R180">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="S180">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="T180">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="U180">
         <v>2600</v>
@@ -14105,7 +14122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -14155,7 +14172,7 @@
         <v>10</v>
       </c>
       <c r="Q181">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="R181">
         <v>30</v>
@@ -14176,7 +14193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -14226,7 +14243,7 @@
         <v>10</v>
       </c>
       <c r="Q182">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="R182">
         <v>23</v>
@@ -14247,7 +14264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -14297,7 +14314,7 @@
         <v>10</v>
       </c>
       <c r="Q183">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="R183">
         <v>45</v>
@@ -14318,7 +14335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -14362,13 +14379,13 @@
         <v>1</v>
       </c>
       <c r="O184" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P184" t="s">
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R184">
         <v>43</v>
@@ -14389,7 +14406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -14439,7 +14456,7 @@
         <v>10</v>
       </c>
       <c r="Q185">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="R185">
         <v>60</v>
@@ -14460,7 +14477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -14510,7 +14527,7 @@
         <v>10</v>
       </c>
       <c r="Q186">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="R186">
         <v>35</v>
@@ -14531,7 +14548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -14575,13 +14592,13 @@
         <v>1</v>
       </c>
       <c r="O187" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P187" t="s">
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="R187">
         <v>60</v>
@@ -14602,7 +14619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -14652,7 +14669,7 @@
         <v>10</v>
       </c>
       <c r="Q188">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="R188">
         <v>20</v>
@@ -14673,7 +14690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -14723,7 +14740,7 @@
         <v>10</v>
       </c>
       <c r="Q189">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="R189">
         <v>70</v>
@@ -14744,7 +14761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -14788,19 +14805,19 @@
         <v>1</v>
       </c>
       <c r="O190" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P190" t="s">
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="R190">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="S190">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="T190">
         <v>14500</v>
@@ -14815,7 +14832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -14865,7 +14882,7 @@
         <v>10</v>
       </c>
       <c r="Q191">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="R191">
         <v>70</v>
@@ -14886,7 +14903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -14936,7 +14953,7 @@
         <v>10</v>
       </c>
       <c r="Q192">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="R192">
         <v>22</v>
@@ -14957,7 +14974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -15001,19 +15018,19 @@
         <v>1</v>
       </c>
       <c r="O193" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P193" t="s">
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="R193">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="S193">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="T193">
         <v>15600</v>
@@ -15028,7 +15045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -15078,7 +15095,7 @@
         <v>10</v>
       </c>
       <c r="Q194">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="R194">
         <v>38</v>
@@ -15099,7 +15116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -15149,7 +15166,7 @@
         <v>10</v>
       </c>
       <c r="Q195">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="R195">
         <v>66</v>
@@ -15170,7 +15187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -15220,7 +15237,7 @@
         <v>10</v>
       </c>
       <c r="Q196">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="R196">
         <v>25</v>
@@ -15241,7 +15258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -15285,19 +15302,19 @@
         <v>1</v>
       </c>
       <c r="O197" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P197" t="s">
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="R197">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="S197">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="T197">
         <v>25000</v>
@@ -15312,7 +15329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -15362,7 +15379,7 @@
         <v>10</v>
       </c>
       <c r="Q198">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="R198">
         <v>60</v>
@@ -15383,7 +15400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -15433,7 +15450,7 @@
         <v>10</v>
       </c>
       <c r="Q199">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="R199">
         <v>40</v>
@@ -15454,7 +15471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -15504,7 +15521,7 @@
         <v>10</v>
       </c>
       <c r="Q200">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R200">
         <v>42</v>
@@ -15525,7 +15542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -15575,7 +15592,7 @@
         <v>10</v>
       </c>
       <c r="Q201">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R201">
         <v>42</v>
@@ -15596,7 +15613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -15646,7 +15663,7 @@
         <v>10</v>
       </c>
       <c r="Q202">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R202">
         <v>42</v>
@@ -15667,7 +15684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -15717,13 +15734,13 @@
         <v>10</v>
       </c>
       <c r="Q203">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="R203">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="S203">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="T203">
         <v>5000</v>
@@ -15738,7 +15755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -15782,19 +15799,19 @@
         <v>1</v>
       </c>
       <c r="O204" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P204" t="s">
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="R204">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="S204">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="T204">
         <v>35000</v>
@@ -15809,7 +15826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -15859,7 +15876,7 @@
         <v>10</v>
       </c>
       <c r="Q205">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="R205">
         <v>30</v>
@@ -15880,7 +15897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -15924,19 +15941,19 @@
         <v>1</v>
       </c>
       <c r="O206" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P206" t="s">
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>20500</v>
+        <v>10250</v>
       </c>
       <c r="R206">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="S206">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="T206">
         <v>40000</v>
@@ -15951,7 +15968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -16001,7 +16018,7 @@
         <v>10</v>
       </c>
       <c r="Q207">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="R207">
         <v>30</v>
@@ -16022,7 +16039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -16072,7 +16089,7 @@
         <v>10</v>
       </c>
       <c r="Q208">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="R208">
         <v>45</v>
@@ -16093,7 +16110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -16143,7 +16160,7 @@
         <v>10</v>
       </c>
       <c r="Q209">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="R209">
         <v>40</v>
@@ -16164,7 +16181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -16214,7 +16231,7 @@
         <v>10</v>
       </c>
       <c r="Q210">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R210">
         <v>38</v>
@@ -16235,7 +16252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -16279,13 +16296,13 @@
         <v>1</v>
       </c>
       <c r="O211" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P211" t="s">
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R211">
         <v>51</v>
@@ -16306,7 +16323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -16350,13 +16367,13 @@
         <v>1</v>
       </c>
       <c r="O212" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P212" t="s">
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="R212">
         <v>60</v>
@@ -16377,7 +16394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -16427,7 +16444,7 @@
         <v>10</v>
       </c>
       <c r="Q213">
-        <v>13600</v>
+        <v>6800</v>
       </c>
       <c r="R213">
         <v>39</v>
@@ -16448,7 +16465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -16492,13 +16509,13 @@
         <v>1</v>
       </c>
       <c r="O214" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P214" t="s">
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="R214">
         <v>35</v>
@@ -16519,7 +16536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -16569,7 +16586,7 @@
         <v>10</v>
       </c>
       <c r="Q215">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="R215">
         <v>35</v>
@@ -16590,7 +16607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -16640,13 +16657,13 @@
         <v>10</v>
       </c>
       <c r="Q216">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="R216">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S216">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T216">
         <v>45000</v>
@@ -16661,7 +16678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -16711,7 +16728,7 @@
         <v>10</v>
       </c>
       <c r="Q217">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="R217">
         <v>20</v>
@@ -16732,7 +16749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -16782,7 +16799,7 @@
         <v>10</v>
       </c>
       <c r="Q218">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="R218">
         <v>33</v>
@@ -16803,7 +16820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -16847,19 +16864,19 @@
         <v>1</v>
       </c>
       <c r="O219" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P219" t="s">
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="R219">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="S219">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="T219">
         <v>35000</v>
@@ -16874,7 +16891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -16924,13 +16941,13 @@
         <v>10</v>
       </c>
       <c r="Q220">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="R220">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="S220">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="T220">
         <v>35000</v>
@@ -16945,7 +16962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -16995,7 +17012,7 @@
         <v>10</v>
       </c>
       <c r="Q221">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="R221">
         <v>60</v>
@@ -17016,7 +17033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -17066,7 +17083,7 @@
         <v>10</v>
       </c>
       <c r="Q222">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="R222">
         <v>42</v>
@@ -17087,7 +17104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -17137,7 +17154,7 @@
         <v>10</v>
       </c>
       <c r="Q223">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="R223">
         <v>21</v>
@@ -17158,7 +17175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -17208,7 +17225,7 @@
         <v>10</v>
       </c>
       <c r="Q224">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="R224">
         <v>25</v>
@@ -17229,7 +17246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -17279,7 +17296,7 @@
         <v>10</v>
       </c>
       <c r="Q225">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="R225">
         <v>50</v>
@@ -17300,7 +17317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -17350,7 +17367,7 @@
         <v>10</v>
       </c>
       <c r="Q226">
-        <v>17500</v>
+        <v>8750</v>
       </c>
       <c r="R226">
         <v>52</v>
@@ -17371,7 +17388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -17415,19 +17432,19 @@
         <v>1</v>
       </c>
       <c r="O227" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P227" t="s">
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>36000</v>
+        <v>1800</v>
       </c>
       <c r="R227">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="S227">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="T227">
         <v>9000</v>
@@ -17442,7 +17459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -17486,19 +17503,19 @@
         <v>1</v>
       </c>
       <c r="O228" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P228" t="s">
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="R228">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="S228">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="T228">
         <v>16000</v>
@@ -17513,7 +17530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -17563,7 +17580,7 @@
         <v>10</v>
       </c>
       <c r="Q229">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="R229">
         <v>40</v>
@@ -17584,7 +17601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -17628,19 +17645,19 @@
         <v>1</v>
       </c>
       <c r="O230" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P230" t="s">
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="R230">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="S230">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="T230">
         <v>22000</v>
@@ -17655,7 +17672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -17705,13 +17722,13 @@
         <v>10</v>
       </c>
       <c r="Q231">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="R231">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="S231">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="T231">
         <v>65000</v>
@@ -17726,7 +17743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -17770,19 +17787,19 @@
         <v>1</v>
       </c>
       <c r="O232" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P232" t="s">
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="R232">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="S232">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="T232">
         <v>36000</v>
@@ -17797,7 +17814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -17847,7 +17864,7 @@
         <v>10</v>
       </c>
       <c r="Q233">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="R233">
         <v>10</v>
@@ -17868,7 +17885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -17912,19 +17929,19 @@
         <v>1</v>
       </c>
       <c r="O234" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="P234" t="s">
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="R234">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="S234">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="T234">
         <v>50000</v>
@@ -17939,7 +17956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -17989,13 +18006,13 @@
         <v>10</v>
       </c>
       <c r="Q235">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="R235">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="S235">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="T235">
         <v>30000</v>
@@ -18010,7 +18027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -18060,7 +18077,7 @@
         <v>10</v>
       </c>
       <c r="Q236">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="R236">
         <v>35</v>
@@ -18081,7 +18098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -18131,7 +18148,7 @@
         <v>10</v>
       </c>
       <c r="Q237">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="R237">
         <v>20</v>
@@ -18172,6 +18189,15 @@
         <x15:webExtension appRef="{1DCBCC5D-9E46-43B2-9C86-CFDCF2CD9494}">
           <xm:f>#REF!</xm:f>
         </x15:webExtension>
+        <x15:webExtension appRef="{5A855AA6-8D5E-43D8-9521-5C2C9FBE86C1}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{CC81E68B-16A8-4074-9C60-887243634013}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{2D55D570-2511-4349-A5C7-AE317B625859}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
       </x15:webExtensions>
     </ext>
   </extLst>
@@ -18182,13 +18208,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2889CF-1072-4E89-B061-5CDEB0CC5A79}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
@@ -18199,7 +18225,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18210,7 +18236,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18231,15 +18257,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9AE6C5-1145-44F3-859B-CC2DDA77FE71}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
@@ -18268,7 +18294,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18297,7 +18323,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18326,7 +18352,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18353,6 +18379,35 @@
       </c>
       <c r="I4" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>40000</v>
+      </c>
+      <c r="G5">
+        <v>66</v>
+      </c>
+      <c r="H5">
+        <v>66</v>
+      </c>
+      <c r="I5" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -18367,13 +18422,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13706FE3-B527-47F4-82F2-F6C299FCB0D1}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
@@ -18399,7 +18454,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18425,7 +18480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18451,7 +18506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18483,5 +18538,23 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
+      <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x15:webExtension appRef="{351B9DBB-1CBA-4DBD-B129-F34637623C1F}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{DEAD9C16-6E2F-43CD-9A4A-352C68E3703C}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{83B2DDF0-79FD-4271-BC95-8FCAA188C87B}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{D745A3CC-2558-4528-A170-AEB2FCDDD6F1}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+      </x15:webExtensions>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/pyloghub/sample_data/shipmentAnalyzerReverse.xlsx
+++ b/pyloghub/sample_data/shipmentAnalyzerReverse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\log-hub-python\pyloghub\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A6D2C3-473A-4DAC-A17F-0DAF2DC28415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAA05F0-6EC1-46D4-B473-E160F67D5A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{45C245A8-4959-42A3-BACC-E204F4B4BB1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45C245A8-4959-42A3-BACC-E204F4B4BB1C}"/>
   </bookViews>
   <sheets>
     <sheet name="shipments" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="254">
   <si>
     <t>*</t>
   </si>
@@ -798,6 +798,9 @@
   </si>
   <si>
     <t>Container</t>
+  </si>
+  <si>
+    <t>distance</t>
   </si>
 </sst>
 </file>
@@ -857,11 +860,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,9 +894,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A773E091-5660-4EEE-989B-7318A7B4733D}" name="Table26" displayName="Table26" ref="A1:W237" totalsRowShown="0">
-  <autoFilter ref="A1:W237" xr:uid="{A773E091-5660-4EEE-989B-7318A7B4733D}"/>
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A773E091-5660-4EEE-989B-7318A7B4733D}" name="Table26" displayName="Table26" ref="A1:X237" totalsRowShown="0">
+  <autoFilter ref="A1:X237" xr:uid="{A773E091-5660-4EEE-989B-7318A7B4733D}"/>
+  <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{7A25B771-05F3-46E4-805A-1F9484AB04C8}" name="id"/>
     <tableColumn id="23" xr3:uid="{851D1D19-803B-4169-948E-BD3C650D2E58}" name="shipmentId"/>
     <tableColumn id="2" xr3:uid="{920525AF-BDD7-45CF-9D26-9B7B84745CA7}" name="shipmentLeg"/>
@@ -909,6 +913,7 @@
     <tableColumn id="13" xr3:uid="{016FBFCB-18FF-4B24-BAEF-DC3CBBA8763B}" name="carrier"/>
     <tableColumn id="14" xr3:uid="{6AF025CA-C36D-4A8D-BB6F-E031498CAC1B}" name="truckShipPlaneType"/>
     <tableColumn id="15" xr3:uid="{50BE34D2-69B4-49EF-BE9E-0C93B4419C83}" name="speedProfile"/>
+    <tableColumn id="24" xr3:uid="{A61DC214-9429-414B-B719-535DCE3EEBC9}" name="distance"/>
     <tableColumn id="16" xr3:uid="{A9FFA12B-B916-4194-8A4E-47FC136B7187}" name="weight"/>
     <tableColumn id="17" xr3:uid="{5CD9AF8A-F3EE-4CEB-9521-4F96F7E78653}" name="volume"/>
     <tableColumn id="18" xr3:uid="{46FEC755-F383-4461-B620-7AE35BFC1797}" name="pallets"/>
@@ -1309,40 +1314,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF662E8-949D-4A1E-B592-D5282CC1957E}">
-  <dimension ref="A1:W237"/>
+  <dimension ref="A1:X237"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>220</v>
       </c>
@@ -1391,29 +1396,32 @@
       <c r="P1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1462,29 +1470,29 @@
       <c r="P2" t="s">
         <v>10</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>9000</v>
-      </c>
-      <c r="R2">
-        <v>50</v>
       </c>
       <c r="S2">
         <v>50</v>
       </c>
       <c r="T2">
+        <v>50</v>
+      </c>
+      <c r="U2">
         <v>50000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>800</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>11</v>
       </c>
-      <c r="W2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1533,29 +1541,29 @@
       <c r="P3" t="s">
         <v>10</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>7000</v>
-      </c>
-      <c r="R3">
-        <v>42</v>
       </c>
       <c r="S3">
         <v>42</v>
       </c>
       <c r="T3">
+        <v>42</v>
+      </c>
+      <c r="U3">
         <v>42000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>650</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>11</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1604,29 +1612,29 @@
       <c r="P4" t="s">
         <v>10</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>3700</v>
-      </c>
-      <c r="R4">
-        <v>20</v>
       </c>
       <c r="S4">
         <v>20</v>
       </c>
       <c r="T4">
+        <v>20</v>
+      </c>
+      <c r="U4">
         <v>18000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>600</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>11</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1675,29 +1683,29 @@
       <c r="P5" t="s">
         <v>10</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>3000</v>
-      </c>
-      <c r="R5">
-        <v>25</v>
       </c>
       <c r="S5">
         <v>25</v>
       </c>
       <c r="T5">
+        <v>25</v>
+      </c>
+      <c r="U5">
         <v>15000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1500</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>11</v>
       </c>
-      <c r="W5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1746,29 +1754,29 @@
       <c r="P6" t="s">
         <v>10</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>10500</v>
-      </c>
-      <c r="R6">
-        <v>60</v>
       </c>
       <c r="S6">
         <v>60</v>
       </c>
       <c r="T6">
+        <v>60</v>
+      </c>
+      <c r="U6">
         <v>50000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>2000</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>11</v>
       </c>
-      <c r="W6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1817,29 +1825,29 @@
       <c r="P7" t="s">
         <v>10</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>7000</v>
-      </c>
-      <c r="R7">
-        <v>45</v>
       </c>
       <c r="S7">
         <v>45</v>
       </c>
       <c r="T7">
+        <v>45</v>
+      </c>
+      <c r="U7">
         <v>30000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1200</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>11</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1888,29 +1896,29 @@
       <c r="P8" t="s">
         <v>10</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1000</v>
-      </c>
-      <c r="R8">
-        <v>8</v>
       </c>
       <c r="S8">
         <v>8</v>
       </c>
       <c r="T8">
+        <v>8</v>
+      </c>
+      <c r="U8">
         <v>5000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>400</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>11</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1959,29 +1967,29 @@
       <c r="P9" t="s">
         <v>10</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1000</v>
-      </c>
-      <c r="R9">
-        <v>9</v>
       </c>
       <c r="S9">
         <v>9</v>
       </c>
       <c r="T9">
+        <v>9</v>
+      </c>
+      <c r="U9">
         <v>5500</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>500</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>11</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2030,29 +2038,29 @@
       <c r="P10" t="s">
         <v>1</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>6500</v>
-      </c>
-      <c r="R10">
-        <v>38</v>
       </c>
       <c r="S10">
         <v>38</v>
       </c>
       <c r="T10">
+        <v>38</v>
+      </c>
+      <c r="U10">
         <v>29000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>2000</v>
       </c>
-      <c r="V10" t="s">
-        <v>1</v>
-      </c>
       <c r="W10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2101,29 +2109,29 @@
       <c r="P11" t="s">
         <v>10</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>3000</v>
-      </c>
-      <c r="R11">
-        <v>21</v>
       </c>
       <c r="S11">
         <v>21</v>
       </c>
       <c r="T11">
+        <v>21</v>
+      </c>
+      <c r="U11">
         <v>15000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>500</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>11</v>
       </c>
-      <c r="W11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2172,29 +2180,29 @@
       <c r="P12" t="s">
         <v>10</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>4000</v>
-      </c>
-      <c r="R12">
-        <v>25</v>
       </c>
       <c r="S12">
         <v>25</v>
       </c>
       <c r="T12">
+        <v>25</v>
+      </c>
+      <c r="U12">
         <v>15000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>800</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>11</v>
       </c>
-      <c r="W12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2243,29 +2251,29 @@
       <c r="P13" t="s">
         <v>10</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>6000</v>
-      </c>
-      <c r="R13">
-        <v>50</v>
       </c>
       <c r="S13">
         <v>50</v>
       </c>
       <c r="T13">
+        <v>50</v>
+      </c>
+      <c r="U13">
         <v>35000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>1800</v>
       </c>
-      <c r="V13" t="s">
-        <v>1</v>
-      </c>
       <c r="W13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2314,29 +2322,29 @@
       <c r="P14" t="s">
         <v>10</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>4500</v>
-      </c>
-      <c r="R14">
-        <v>35</v>
       </c>
       <c r="S14">
         <v>35</v>
       </c>
       <c r="T14">
+        <v>35</v>
+      </c>
+      <c r="U14">
         <v>30000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>500</v>
       </c>
-      <c r="V14" t="s">
-        <v>1</v>
-      </c>
       <c r="W14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2385,29 +2393,29 @@
       <c r="P15" t="s">
         <v>10</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>9500</v>
-      </c>
-      <c r="R15">
-        <v>55</v>
       </c>
       <c r="S15">
         <v>55</v>
       </c>
       <c r="T15">
+        <v>55</v>
+      </c>
+      <c r="U15">
         <v>55000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>800</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>11</v>
       </c>
-      <c r="W15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2456,29 +2464,29 @@
       <c r="P16" t="s">
         <v>10</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>7000</v>
-      </c>
-      <c r="R16">
-        <v>42</v>
       </c>
       <c r="S16">
         <v>42</v>
       </c>
       <c r="T16">
+        <v>42</v>
+      </c>
+      <c r="U16">
         <v>28000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>900</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>11</v>
       </c>
-      <c r="W16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2527,29 +2535,29 @@
       <c r="P17" t="s">
         <v>10</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>3000</v>
-      </c>
-      <c r="R17">
-        <v>21</v>
       </c>
       <c r="S17">
         <v>21</v>
       </c>
       <c r="T17">
+        <v>21</v>
+      </c>
+      <c r="U17">
         <v>10000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1200</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>11</v>
       </c>
-      <c r="W17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2598,29 +2606,29 @@
       <c r="P18" t="s">
         <v>10</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>4000</v>
-      </c>
-      <c r="R18">
-        <v>30</v>
       </c>
       <c r="S18">
         <v>30</v>
       </c>
       <c r="T18">
+        <v>30</v>
+      </c>
+      <c r="U18">
         <v>33000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>800</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>11</v>
       </c>
-      <c r="W18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2669,29 +2677,29 @@
       <c r="P19" t="s">
         <v>10</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>4000</v>
-      </c>
-      <c r="R19">
-        <v>30</v>
       </c>
       <c r="S19">
         <v>30</v>
       </c>
       <c r="T19">
+        <v>30</v>
+      </c>
+      <c r="U19">
         <v>33000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>800</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>11</v>
       </c>
-      <c r="W19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2740,29 +2748,29 @@
       <c r="P20" t="s">
         <v>10</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>3000</v>
-      </c>
-      <c r="R20">
-        <v>21</v>
       </c>
       <c r="S20">
         <v>21</v>
       </c>
       <c r="T20">
+        <v>21</v>
+      </c>
+      <c r="U20">
         <v>15000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>500</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>11</v>
       </c>
-      <c r="W20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2811,29 +2819,29 @@
       <c r="P21" t="s">
         <v>10</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>8500</v>
-      </c>
-      <c r="R21">
-        <v>55</v>
       </c>
       <c r="S21">
         <v>55</v>
       </c>
       <c r="T21">
+        <v>55</v>
+      </c>
+      <c r="U21">
         <v>40000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>1000</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>11</v>
       </c>
-      <c r="W21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2882,29 +2890,29 @@
       <c r="P22" t="s">
         <v>10</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>4000</v>
-      </c>
-      <c r="R22">
-        <v>24</v>
       </c>
       <c r="S22">
         <v>24</v>
       </c>
       <c r="T22">
+        <v>24</v>
+      </c>
+      <c r="U22">
         <v>20000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>1500</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>11</v>
       </c>
-      <c r="W22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2953,29 +2961,29 @@
       <c r="P23" t="s">
         <v>10</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>7000</v>
-      </c>
-      <c r="R23">
-        <v>45</v>
       </c>
       <c r="S23">
         <v>45</v>
       </c>
       <c r="T23">
+        <v>45</v>
+      </c>
+      <c r="U23">
         <v>30000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>1200</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>11</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3024,29 +3032,29 @@
       <c r="P24" t="s">
         <v>10</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>1000</v>
-      </c>
-      <c r="R24">
-        <v>8</v>
       </c>
       <c r="S24">
         <v>8</v>
       </c>
       <c r="T24">
+        <v>8</v>
+      </c>
+      <c r="U24">
         <v>5000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>400</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>11</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3095,29 +3103,29 @@
       <c r="P25" t="s">
         <v>10</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1000</v>
-      </c>
-      <c r="R25">
-        <v>9</v>
       </c>
       <c r="S25">
         <v>9</v>
       </c>
       <c r="T25">
+        <v>9</v>
+      </c>
+      <c r="U25">
         <v>5500</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>500</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>11</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3166,29 +3174,29 @@
       <c r="P26" t="s">
         <v>10</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>6000</v>
-      </c>
-      <c r="R26">
-        <v>40</v>
       </c>
       <c r="S26">
         <v>40</v>
       </c>
       <c r="T26">
+        <v>40</v>
+      </c>
+      <c r="U26">
         <v>35000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1800</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>11</v>
       </c>
-      <c r="W26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3237,29 +3245,29 @@
       <c r="P27" t="s">
         <v>10</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>4500</v>
-      </c>
-      <c r="R27">
-        <v>20</v>
       </c>
       <c r="S27">
         <v>20</v>
       </c>
       <c r="T27">
+        <v>20</v>
+      </c>
+      <c r="U27">
         <v>30000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>500</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>11</v>
       </c>
-      <c r="W27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3308,29 +3316,29 @@
       <c r="P28" t="s">
         <v>10</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>4000</v>
-      </c>
-      <c r="R28">
-        <v>30</v>
       </c>
       <c r="S28">
         <v>30</v>
       </c>
       <c r="T28">
+        <v>30</v>
+      </c>
+      <c r="U28">
         <v>33000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>800</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>11</v>
       </c>
-      <c r="W28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3379,29 +3387,29 @@
       <c r="P29" t="s">
         <v>10</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>3000</v>
-      </c>
-      <c r="R29">
-        <v>21</v>
       </c>
       <c r="S29">
         <v>21</v>
       </c>
       <c r="T29">
+        <v>21</v>
+      </c>
+      <c r="U29">
         <v>15000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>500</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>11</v>
       </c>
-      <c r="W29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3450,29 +3458,29 @@
       <c r="P30" t="s">
         <v>10</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>4000</v>
-      </c>
-      <c r="R30">
-        <v>30</v>
       </c>
       <c r="S30">
         <v>30</v>
       </c>
       <c r="T30">
+        <v>30</v>
+      </c>
+      <c r="U30">
         <v>33000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>800</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>11</v>
       </c>
-      <c r="W30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3521,29 +3529,29 @@
       <c r="P31" t="s">
         <v>10</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>9000</v>
-      </c>
-      <c r="R31">
-        <v>52</v>
       </c>
       <c r="S31">
         <v>52</v>
       </c>
       <c r="T31">
+        <v>52</v>
+      </c>
+      <c r="U31">
         <v>48000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>700</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>11</v>
       </c>
-      <c r="W31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3592,29 +3600,29 @@
       <c r="P32" t="s">
         <v>1</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>8000</v>
-      </c>
-      <c r="R32">
-        <v>48</v>
       </c>
       <c r="S32">
         <v>48</v>
       </c>
       <c r="T32">
+        <v>48</v>
+      </c>
+      <c r="U32">
         <v>44000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>1300</v>
       </c>
-      <c r="V32" t="s">
-        <v>1</v>
-      </c>
       <c r="W32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3663,29 +3671,29 @@
       <c r="P33" t="s">
         <v>10</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>8000</v>
-      </c>
-      <c r="R33">
-        <v>41</v>
       </c>
       <c r="S33">
         <v>41</v>
       </c>
       <c r="T33">
+        <v>41</v>
+      </c>
+      <c r="U33">
         <v>44000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>1800</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>11</v>
       </c>
-      <c r="W33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3734,29 +3742,29 @@
       <c r="P34" t="s">
         <v>10</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>7500</v>
-      </c>
-      <c r="R34">
-        <v>45</v>
       </c>
       <c r="S34">
         <v>45</v>
       </c>
       <c r="T34">
+        <v>45</v>
+      </c>
+      <c r="U34">
         <v>21000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>1500</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>11</v>
       </c>
-      <c r="W34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3805,29 +3813,29 @@
       <c r="P35" t="s">
         <v>1</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>7500</v>
-      </c>
-      <c r="R35">
-        <v>45</v>
       </c>
       <c r="S35">
         <v>45</v>
       </c>
       <c r="T35">
+        <v>45</v>
+      </c>
+      <c r="U35">
         <v>21000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>1200</v>
       </c>
-      <c r="V35" t="s">
-        <v>1</v>
-      </c>
       <c r="W35" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3876,29 +3884,29 @@
       <c r="P36" t="s">
         <v>1</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>7000</v>
-      </c>
-      <c r="R36">
-        <v>43</v>
       </c>
       <c r="S36">
         <v>43</v>
       </c>
       <c r="T36">
+        <v>43</v>
+      </c>
+      <c r="U36">
         <v>25000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>2200</v>
       </c>
-      <c r="V36" t="s">
-        <v>1</v>
-      </c>
       <c r="W36" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3947,29 +3955,29 @@
       <c r="P37" t="s">
         <v>10</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>7000</v>
-      </c>
-      <c r="R37">
-        <v>43</v>
       </c>
       <c r="S37">
         <v>43</v>
       </c>
       <c r="T37">
+        <v>43</v>
+      </c>
+      <c r="U37">
         <v>25000</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>900</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>11</v>
       </c>
-      <c r="W37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4018,29 +4026,29 @@
       <c r="P38" t="s">
         <v>1</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>9500</v>
-      </c>
-      <c r="R38">
-        <v>60</v>
       </c>
       <c r="S38">
         <v>60</v>
       </c>
       <c r="T38">
+        <v>60</v>
+      </c>
+      <c r="U38">
         <v>50000</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>3000</v>
       </c>
-      <c r="V38" t="s">
-        <v>1</v>
-      </c>
       <c r="W38" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4089,29 +4097,29 @@
       <c r="P39" t="s">
         <v>10</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>9500</v>
-      </c>
-      <c r="R39">
-        <v>60</v>
       </c>
       <c r="S39">
         <v>60</v>
       </c>
       <c r="T39">
+        <v>60</v>
+      </c>
+      <c r="U39">
         <v>50000</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>500</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>11</v>
       </c>
-      <c r="W39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4160,29 +4168,29 @@
       <c r="P40" t="s">
         <v>1</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>7500</v>
-      </c>
-      <c r="R40">
-        <v>35</v>
       </c>
       <c r="S40">
         <v>35</v>
       </c>
       <c r="T40">
+        <v>35</v>
+      </c>
+      <c r="U40">
         <v>23000</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>3000</v>
       </c>
-      <c r="V40" t="s">
-        <v>1</v>
-      </c>
       <c r="W40" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4231,29 +4239,29 @@
       <c r="P41" t="s">
         <v>10</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>7500</v>
-      </c>
-      <c r="R41">
-        <v>35</v>
       </c>
       <c r="S41">
         <v>35</v>
       </c>
       <c r="T41">
+        <v>35</v>
+      </c>
+      <c r="U41">
         <v>23000</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>550</v>
       </c>
-      <c r="V41" t="s">
-        <v>1</v>
-      </c>
       <c r="W41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4302,29 +4310,29 @@
       <c r="P42" t="s">
         <v>1</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>10000</v>
-      </c>
-      <c r="R42">
-        <v>60</v>
       </c>
       <c r="S42">
         <v>60</v>
       </c>
       <c r="T42">
+        <v>60</v>
+      </c>
+      <c r="U42">
         <v>18000</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>5000</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>11</v>
       </c>
-      <c r="W42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4373,29 +4381,29 @@
       <c r="P43" t="s">
         <v>10</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>8000</v>
-      </c>
-      <c r="R43">
-        <v>50</v>
       </c>
       <c r="S43">
         <v>50</v>
       </c>
       <c r="T43">
+        <v>50</v>
+      </c>
+      <c r="U43">
         <v>20000</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>600</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>11</v>
       </c>
-      <c r="W43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4444,29 +4452,29 @@
       <c r="P44" t="s">
         <v>1</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>8000</v>
-      </c>
-      <c r="R44">
-        <v>50</v>
       </c>
       <c r="S44">
         <v>50</v>
       </c>
       <c r="T44">
+        <v>50</v>
+      </c>
+      <c r="U44">
         <v>20000</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>800</v>
       </c>
-      <c r="V44" t="s">
-        <v>1</v>
-      </c>
       <c r="W44" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4515,29 +4523,29 @@
       <c r="P45" t="s">
         <v>10</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>8000</v>
-      </c>
-      <c r="R45">
-        <v>50</v>
       </c>
       <c r="S45">
         <v>50</v>
       </c>
       <c r="T45">
+        <v>50</v>
+      </c>
+      <c r="U45">
         <v>20000</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>300</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>11</v>
       </c>
-      <c r="W45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4586,29 +4594,29 @@
       <c r="P46" t="s">
         <v>10</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>9500</v>
-      </c>
-      <c r="R46">
-        <v>70</v>
       </c>
       <c r="S46">
         <v>70</v>
       </c>
       <c r="T46">
+        <v>70</v>
+      </c>
+      <c r="U46">
         <v>14500</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>1000</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>11</v>
       </c>
-      <c r="W46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4657,29 +4665,29 @@
       <c r="P47" t="s">
         <v>1</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>9500</v>
-      </c>
-      <c r="R47">
-        <v>49</v>
       </c>
       <c r="S47">
         <v>49</v>
       </c>
       <c r="T47">
+        <v>49</v>
+      </c>
+      <c r="U47">
         <v>14500</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>6000</v>
       </c>
-      <c r="V47" t="s">
-        <v>1</v>
-      </c>
       <c r="W47" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4728,29 +4736,29 @@
       <c r="P48" t="s">
         <v>10</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>9500</v>
-      </c>
-      <c r="R48">
-        <v>71</v>
       </c>
       <c r="S48">
         <v>71</v>
       </c>
       <c r="T48">
+        <v>71</v>
+      </c>
+      <c r="U48">
         <v>14500</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>950</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>11</v>
       </c>
-      <c r="W48" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4799,29 +4807,29 @@
       <c r="P49" t="s">
         <v>10</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>2500</v>
-      </c>
-      <c r="R49">
-        <v>22</v>
       </c>
       <c r="S49">
         <v>22</v>
       </c>
       <c r="T49">
+        <v>22</v>
+      </c>
+      <c r="U49">
         <v>6000</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>250</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>11</v>
       </c>
-      <c r="W49" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4870,29 +4878,29 @@
       <c r="P50" t="s">
         <v>10</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>5000</v>
-      </c>
-      <c r="R50">
-        <v>38</v>
       </c>
       <c r="S50">
         <v>38</v>
       </c>
       <c r="T50">
+        <v>38</v>
+      </c>
+      <c r="U50">
         <v>3600</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>600</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>11</v>
       </c>
-      <c r="W50" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4941,29 +4949,29 @@
       <c r="P51" t="s">
         <v>10</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>4000</v>
-      </c>
-      <c r="R51">
-        <v>28</v>
       </c>
       <c r="S51">
         <v>28</v>
       </c>
       <c r="T51">
+        <v>28</v>
+      </c>
+      <c r="U51">
         <v>9000</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>1500</v>
       </c>
-      <c r="V51" t="s">
+      <c r="W51" t="s">
         <v>11</v>
       </c>
-      <c r="W51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5012,29 +5020,29 @@
       <c r="P52" t="s">
         <v>1</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>8000</v>
-      </c>
-      <c r="R52">
-        <v>30</v>
       </c>
       <c r="S52">
         <v>30</v>
       </c>
       <c r="T52">
+        <v>30</v>
+      </c>
+      <c r="U52">
         <v>15600</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>1300</v>
       </c>
-      <c r="V52" t="s">
-        <v>1</v>
-      </c>
       <c r="W52" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5083,29 +5091,29 @@
       <c r="P53" t="s">
         <v>10</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>8000</v>
-      </c>
-      <c r="R53">
-        <v>30</v>
       </c>
       <c r="S53">
         <v>30</v>
       </c>
       <c r="T53">
+        <v>30</v>
+      </c>
+      <c r="U53">
         <v>15600</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>180</v>
       </c>
-      <c r="V53" t="s">
+      <c r="W53" t="s">
         <v>11</v>
       </c>
-      <c r="W53" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5154,29 +5162,29 @@
       <c r="P54" t="s">
         <v>10</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>10000</v>
-      </c>
-      <c r="R54">
-        <v>30</v>
       </c>
       <c r="S54">
         <v>30</v>
       </c>
       <c r="T54">
+        <v>30</v>
+      </c>
+      <c r="U54">
         <v>41000</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>800</v>
       </c>
-      <c r="V54" t="s">
+      <c r="W54" t="s">
         <v>11</v>
       </c>
-      <c r="W54" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5225,29 +5233,29 @@
       <c r="P55" t="s">
         <v>10</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>6500</v>
-      </c>
-      <c r="R55">
-        <v>38</v>
       </c>
       <c r="S55">
         <v>38</v>
       </c>
       <c r="T55">
+        <v>38</v>
+      </c>
+      <c r="U55">
         <v>8000</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>600</v>
       </c>
-      <c r="V55" t="s">
+      <c r="W55" t="s">
         <v>11</v>
       </c>
-      <c r="W55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5296,29 +5304,29 @@
       <c r="P56" t="s">
         <v>10</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>3000</v>
-      </c>
-      <c r="R56">
-        <v>15</v>
       </c>
       <c r="S56">
         <v>15</v>
       </c>
       <c r="T56">
+        <v>15</v>
+      </c>
+      <c r="U56">
         <v>24000</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>500</v>
       </c>
-      <c r="V56" t="s">
+      <c r="W56" t="s">
         <v>11</v>
       </c>
-      <c r="W56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5367,29 +5375,29 @@
       <c r="P57" t="s">
         <v>10</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>3500</v>
-      </c>
-      <c r="R57">
-        <v>43</v>
       </c>
       <c r="S57">
         <v>43</v>
       </c>
       <c r="T57">
+        <v>43</v>
+      </c>
+      <c r="U57">
         <v>13000</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>1800</v>
       </c>
-      <c r="V57" t="s">
-        <v>1</v>
-      </c>
       <c r="W57" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5438,29 +5446,29 @@
       <c r="P58" t="s">
         <v>10</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>3500</v>
-      </c>
-      <c r="R58">
-        <v>43</v>
       </c>
       <c r="S58">
         <v>43</v>
       </c>
       <c r="T58">
+        <v>43</v>
+      </c>
+      <c r="U58">
         <v>13000</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>500</v>
       </c>
-      <c r="V58" t="s">
-        <v>1</v>
-      </c>
       <c r="W58" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5509,29 +5517,29 @@
       <c r="P59" t="s">
         <v>10</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>6000</v>
-      </c>
-      <c r="R59">
-        <v>25</v>
       </c>
       <c r="S59">
         <v>25</v>
       </c>
       <c r="T59">
+        <v>25</v>
+      </c>
+      <c r="U59">
         <v>10000</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>800</v>
       </c>
-      <c r="V59" t="s">
+      <c r="W59" t="s">
         <v>11</v>
       </c>
-      <c r="W59" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5580,29 +5588,29 @@
       <c r="P60" t="s">
         <v>10</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>9500</v>
-      </c>
-      <c r="R60">
-        <v>53</v>
       </c>
       <c r="S60">
         <v>53</v>
       </c>
       <c r="T60">
+        <v>53</v>
+      </c>
+      <c r="U60">
         <v>19000</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>700</v>
       </c>
-      <c r="V60" t="s">
+      <c r="W60" t="s">
         <v>11</v>
       </c>
-      <c r="W60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5651,29 +5659,29 @@
       <c r="P61" t="s">
         <v>1</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>9000</v>
-      </c>
-      <c r="R61">
-        <v>48</v>
       </c>
       <c r="S61">
         <v>48</v>
       </c>
       <c r="T61">
+        <v>48</v>
+      </c>
+      <c r="U61">
         <v>19000</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>1300</v>
       </c>
-      <c r="V61" t="s">
-        <v>1</v>
-      </c>
       <c r="W61" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5722,29 +5730,29 @@
       <c r="P62" t="s">
         <v>10</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>8500</v>
-      </c>
-      <c r="R62">
-        <v>50</v>
       </c>
       <c r="S62">
         <v>50</v>
       </c>
       <c r="T62">
+        <v>50</v>
+      </c>
+      <c r="U62">
         <v>19000</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>1800</v>
       </c>
-      <c r="V62" t="s">
+      <c r="W62" t="s">
         <v>11</v>
       </c>
-      <c r="W62" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5793,29 +5801,29 @@
       <c r="P63" t="s">
         <v>1</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>10500</v>
-      </c>
-      <c r="R63">
-        <v>65</v>
       </c>
       <c r="S63">
         <v>65</v>
       </c>
       <c r="T63">
+        <v>65</v>
+      </c>
+      <c r="U63">
         <v>25000</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>3000</v>
       </c>
-      <c r="V63" t="s">
-        <v>1</v>
-      </c>
       <c r="W63" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5864,29 +5872,29 @@
       <c r="P64" t="s">
         <v>10</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>8000</v>
-      </c>
-      <c r="R64">
-        <v>60</v>
       </c>
       <c r="S64">
         <v>60</v>
       </c>
       <c r="T64">
+        <v>60</v>
+      </c>
+      <c r="U64">
         <v>17000</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>600</v>
       </c>
-      <c r="V64" t="s">
+      <c r="W64" t="s">
         <v>11</v>
       </c>
-      <c r="W64" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5935,29 +5943,29 @@
       <c r="P65" t="s">
         <v>1</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>1000</v>
-      </c>
-      <c r="R65">
-        <v>12</v>
       </c>
       <c r="S65">
         <v>12</v>
       </c>
       <c r="T65">
+        <v>12</v>
+      </c>
+      <c r="U65">
         <v>10000</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>6000</v>
       </c>
-      <c r="V65" t="s">
-        <v>1</v>
-      </c>
       <c r="W65" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6006,29 +6014,29 @@
       <c r="P66" t="s">
         <v>1</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>7500</v>
-      </c>
-      <c r="R66">
-        <v>40</v>
       </c>
       <c r="S66">
         <v>40</v>
       </c>
       <c r="T66">
+        <v>40</v>
+      </c>
+      <c r="U66">
         <v>12000</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>1300</v>
       </c>
-      <c r="V66" t="s">
-        <v>1</v>
-      </c>
       <c r="W66" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6077,29 +6085,29 @@
       <c r="P67" t="s">
         <v>10</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>7500</v>
-      </c>
-      <c r="R67">
-        <v>40</v>
       </c>
       <c r="S67">
         <v>40</v>
       </c>
       <c r="T67">
+        <v>40</v>
+      </c>
+      <c r="U67">
         <v>12000</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>180</v>
       </c>
-      <c r="V67" t="s">
+      <c r="W67" t="s">
         <v>11</v>
       </c>
-      <c r="W67" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6148,29 +6156,29 @@
       <c r="P68" t="s">
         <v>10</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <v>7000</v>
-      </c>
-      <c r="R68">
-        <v>42</v>
       </c>
       <c r="S68">
         <v>42</v>
       </c>
       <c r="T68">
+        <v>42</v>
+      </c>
+      <c r="U68">
         <v>42000</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>650</v>
       </c>
-      <c r="V68" t="s">
+      <c r="W68" t="s">
         <v>11</v>
       </c>
-      <c r="W68" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6219,29 +6227,29 @@
       <c r="P69" t="s">
         <v>10</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>7000</v>
-      </c>
-      <c r="R69">
-        <v>42</v>
       </c>
       <c r="S69">
         <v>42</v>
       </c>
       <c r="T69">
+        <v>42</v>
+      </c>
+      <c r="U69">
         <v>42000</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>600</v>
       </c>
-      <c r="V69" t="s">
+      <c r="W69" t="s">
         <v>11</v>
       </c>
-      <c r="W69" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6290,29 +6298,29 @@
       <c r="P70" t="s">
         <v>10</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>7000</v>
-      </c>
-      <c r="R70">
-        <v>42</v>
       </c>
       <c r="S70">
         <v>42</v>
       </c>
       <c r="T70">
+        <v>42</v>
+      </c>
+      <c r="U70">
         <v>42000</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>500</v>
       </c>
-      <c r="V70" t="s">
+      <c r="W70" t="s">
         <v>11</v>
       </c>
-      <c r="W70" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6361,29 +6369,29 @@
       <c r="P71" t="s">
         <v>10</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>2500</v>
-      </c>
-      <c r="R71">
-        <v>20</v>
       </c>
       <c r="S71">
         <v>20</v>
       </c>
       <c r="T71">
+        <v>20</v>
+      </c>
+      <c r="U71">
         <v>16000</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>800</v>
       </c>
-      <c r="V71" t="s">
+      <c r="W71" t="s">
         <v>11</v>
       </c>
-      <c r="W71" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6432,29 +6440,29 @@
       <c r="P72" t="s">
         <v>10</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <v>5500</v>
-      </c>
-      <c r="R72">
-        <v>36</v>
       </c>
       <c r="S72">
         <v>36</v>
       </c>
       <c r="T72">
+        <v>36</v>
+      </c>
+      <c r="U72">
         <v>14000</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>800</v>
       </c>
-      <c r="V72" t="s">
+      <c r="W72" t="s">
         <v>11</v>
       </c>
-      <c r="W72" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6503,29 +6511,29 @@
       <c r="P73" t="s">
         <v>10</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <v>7000</v>
-      </c>
-      <c r="R73">
-        <v>45</v>
       </c>
       <c r="S73">
         <v>45</v>
       </c>
       <c r="T73">
+        <v>45</v>
+      </c>
+      <c r="U73">
         <v>30000</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>1200</v>
       </c>
-      <c r="V73" t="s">
+      <c r="W73" t="s">
         <v>11</v>
       </c>
-      <c r="W73" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6574,29 +6582,29 @@
       <c r="P74" t="s">
         <v>10</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <v>1000</v>
-      </c>
-      <c r="R74">
-        <v>8</v>
       </c>
       <c r="S74">
         <v>8</v>
       </c>
       <c r="T74">
+        <v>8</v>
+      </c>
+      <c r="U74">
         <v>5000</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>400</v>
       </c>
-      <c r="V74" t="s">
+      <c r="W74" t="s">
         <v>11</v>
       </c>
-      <c r="W74" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6645,29 +6653,29 @@
       <c r="P75" t="s">
         <v>1</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <v>6250</v>
-      </c>
-      <c r="R75">
-        <v>38</v>
       </c>
       <c r="S75">
         <v>38</v>
       </c>
       <c r="T75">
+        <v>38</v>
+      </c>
+      <c r="U75">
         <v>19000</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>2200</v>
       </c>
-      <c r="V75" t="s">
-        <v>1</v>
-      </c>
       <c r="W75" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6716,29 +6724,29 @@
       <c r="P76" t="s">
         <v>10</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <v>10000</v>
-      </c>
-      <c r="R76">
-        <v>64</v>
       </c>
       <c r="S76">
         <v>64</v>
       </c>
       <c r="T76">
+        <v>64</v>
+      </c>
+      <c r="U76">
         <v>35000</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>600</v>
       </c>
-      <c r="V76" t="s">
+      <c r="W76" t="s">
         <v>11</v>
       </c>
-      <c r="W76" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6787,29 +6795,29 @@
       <c r="P77" t="s">
         <v>1</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <v>8800</v>
-      </c>
-      <c r="R77">
-        <v>43</v>
       </c>
       <c r="S77">
         <v>43</v>
       </c>
       <c r="T77">
+        <v>43</v>
+      </c>
+      <c r="U77">
         <v>35000</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>800</v>
       </c>
-      <c r="V77" t="s">
-        <v>1</v>
-      </c>
       <c r="W77" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6858,29 +6866,29 @@
       <c r="P78" t="s">
         <v>10</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <v>7200</v>
-      </c>
-      <c r="R78">
-        <v>38</v>
       </c>
       <c r="S78">
         <v>38</v>
       </c>
       <c r="T78">
+        <v>38</v>
+      </c>
+      <c r="U78">
         <v>35000</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>300</v>
       </c>
-      <c r="V78" t="s">
+      <c r="W78" t="s">
         <v>11</v>
       </c>
-      <c r="W78" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6929,29 +6937,29 @@
       <c r="P79" t="s">
         <v>10</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <v>4000</v>
-      </c>
-      <c r="R79">
-        <v>30</v>
       </c>
       <c r="S79">
         <v>30</v>
       </c>
       <c r="T79">
+        <v>30</v>
+      </c>
+      <c r="U79">
         <v>12000</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>1500</v>
       </c>
-      <c r="V79" t="s">
+      <c r="W79" t="s">
         <v>11</v>
       </c>
-      <c r="W79" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7000,29 +7008,29 @@
       <c r="P80" t="s">
         <v>1</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <v>10250</v>
-      </c>
-      <c r="R80">
-        <v>60</v>
       </c>
       <c r="S80">
         <v>60</v>
       </c>
       <c r="T80">
+        <v>60</v>
+      </c>
+      <c r="U80">
         <v>40000</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>2000</v>
       </c>
-      <c r="V80" t="s">
-        <v>1</v>
-      </c>
       <c r="W80" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7071,29 +7079,29 @@
       <c r="P81" t="s">
         <v>10</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <v>6000</v>
-      </c>
-      <c r="R81">
-        <v>36</v>
       </c>
       <c r="S81">
         <v>36</v>
       </c>
       <c r="T81">
+        <v>36</v>
+      </c>
+      <c r="U81">
         <v>17000</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>1800</v>
       </c>
-      <c r="V81" t="s">
-        <v>1</v>
-      </c>
       <c r="W81" t="s">
+        <v>1</v>
+      </c>
+      <c r="X81" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7142,29 +7150,29 @@
       <c r="P82" t="s">
         <v>10</v>
       </c>
-      <c r="Q82">
+      <c r="R82">
         <v>6000</v>
-      </c>
-      <c r="R82">
-        <v>36</v>
       </c>
       <c r="S82">
         <v>36</v>
       </c>
       <c r="T82">
+        <v>36</v>
+      </c>
+      <c r="U82">
         <v>17000</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>500</v>
       </c>
-      <c r="V82" t="s">
-        <v>1</v>
-      </c>
       <c r="W82" t="s">
+        <v>1</v>
+      </c>
+      <c r="X82" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7213,29 +7221,29 @@
       <c r="P83" t="s">
         <v>10</v>
       </c>
-      <c r="Q83">
+      <c r="R83">
         <v>3000</v>
-      </c>
-      <c r="R83">
-        <v>30</v>
       </c>
       <c r="S83">
         <v>30</v>
       </c>
       <c r="T83">
+        <v>30</v>
+      </c>
+      <c r="U83">
         <v>21000</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>800</v>
       </c>
-      <c r="V83" t="s">
+      <c r="W83" t="s">
         <v>11</v>
       </c>
-      <c r="W83" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7284,29 +7292,29 @@
       <c r="P84" t="s">
         <v>10</v>
       </c>
-      <c r="Q84">
+      <c r="R84">
         <v>8000</v>
-      </c>
-      <c r="R84">
-        <v>45</v>
       </c>
       <c r="S84">
         <v>45</v>
       </c>
       <c r="T84">
+        <v>45</v>
+      </c>
+      <c r="U84">
         <v>16000</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>500</v>
       </c>
-      <c r="V84" t="s">
+      <c r="W84" t="s">
         <v>11</v>
       </c>
-      <c r="W84" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7355,29 +7363,29 @@
       <c r="P85" t="s">
         <v>10</v>
       </c>
-      <c r="Q85">
+      <c r="R85">
         <v>4500</v>
-      </c>
-      <c r="R85">
-        <v>40</v>
       </c>
       <c r="S85">
         <v>40</v>
       </c>
       <c r="T85">
+        <v>40</v>
+      </c>
+      <c r="U85">
         <v>12000</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>500</v>
       </c>
-      <c r="V85" t="s">
+      <c r="W85" t="s">
         <v>11</v>
       </c>
-      <c r="W85" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7426,29 +7434,29 @@
       <c r="P86" t="s">
         <v>10</v>
       </c>
-      <c r="Q86">
+      <c r="R86">
         <v>5000</v>
-      </c>
-      <c r="R86">
-        <v>31</v>
       </c>
       <c r="S86">
         <v>31</v>
       </c>
       <c r="T86">
+        <v>31</v>
+      </c>
+      <c r="U86">
         <v>19500</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>800</v>
       </c>
-      <c r="V86" t="s">
+      <c r="W86" t="s">
         <v>11</v>
       </c>
-      <c r="W86" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7497,29 +7505,29 @@
       <c r="P87" t="s">
         <v>10</v>
       </c>
-      <c r="Q87">
+      <c r="R87">
         <v>9000</v>
-      </c>
-      <c r="R87">
-        <v>52</v>
       </c>
       <c r="S87">
         <v>52</v>
       </c>
       <c r="T87">
+        <v>52</v>
+      </c>
+      <c r="U87">
         <v>48000</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>700</v>
       </c>
-      <c r="V87" t="s">
+      <c r="W87" t="s">
         <v>11</v>
       </c>
-      <c r="W87" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7568,29 +7576,29 @@
       <c r="P88" t="s">
         <v>1</v>
       </c>
-      <c r="Q88">
+      <c r="R88">
         <v>9000</v>
-      </c>
-      <c r="R88">
-        <v>52</v>
       </c>
       <c r="S88">
         <v>52</v>
       </c>
       <c r="T88">
+        <v>52</v>
+      </c>
+      <c r="U88">
         <v>48000</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>1300</v>
       </c>
-      <c r="V88" t="s">
-        <v>1</v>
-      </c>
       <c r="W88" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7639,29 +7647,29 @@
       <c r="P89" t="s">
         <v>10</v>
       </c>
-      <c r="Q89">
+      <c r="R89">
         <v>7000</v>
-      </c>
-      <c r="R89">
-        <v>38</v>
       </c>
       <c r="S89">
         <v>38</v>
       </c>
       <c r="T89">
+        <v>38</v>
+      </c>
+      <c r="U89">
         <v>20000</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>900</v>
       </c>
-      <c r="V89" t="s">
+      <c r="W89" t="s">
         <v>11</v>
       </c>
-      <c r="W89" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X89" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7710,29 +7718,29 @@
       <c r="P90" t="s">
         <v>1</v>
       </c>
-      <c r="Q90">
+      <c r="R90">
         <v>7500</v>
-      </c>
-      <c r="R90">
-        <v>52</v>
       </c>
       <c r="S90">
         <v>52</v>
       </c>
       <c r="T90">
+        <v>52</v>
+      </c>
+      <c r="U90">
         <v>23000</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>3000</v>
       </c>
-      <c r="V90" t="s">
-        <v>1</v>
-      </c>
       <c r="W90" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7781,29 +7789,29 @@
       <c r="P91" t="s">
         <v>10</v>
       </c>
-      <c r="Q91">
+      <c r="R91">
         <v>7000</v>
-      </c>
-      <c r="R91">
-        <v>51</v>
       </c>
       <c r="S91">
         <v>51</v>
       </c>
       <c r="T91">
+        <v>51</v>
+      </c>
+      <c r="U91">
         <v>20000</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>1000</v>
       </c>
-      <c r="V91" t="s">
+      <c r="W91" t="s">
         <v>11</v>
       </c>
-      <c r="W91" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7852,29 +7860,29 @@
       <c r="P92" t="s">
         <v>1</v>
       </c>
-      <c r="Q92">
+      <c r="R92">
         <v>7000</v>
-      </c>
-      <c r="R92">
-        <v>51</v>
       </c>
       <c r="S92">
         <v>51</v>
       </c>
       <c r="T92">
+        <v>51</v>
+      </c>
+      <c r="U92">
         <v>20000</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>6000</v>
       </c>
-      <c r="V92" t="s">
-        <v>1</v>
-      </c>
       <c r="W92" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7923,29 +7931,29 @@
       <c r="P93" t="s">
         <v>1</v>
       </c>
-      <c r="Q93">
+      <c r="R93">
         <v>17500</v>
-      </c>
-      <c r="R93">
-        <v>60</v>
       </c>
       <c r="S93">
         <v>60</v>
       </c>
       <c r="T93">
+        <v>60</v>
+      </c>
+      <c r="U93">
         <v>19000</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>1300</v>
       </c>
-      <c r="V93" t="s">
-        <v>1</v>
-      </c>
       <c r="W93" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7994,29 +8002,29 @@
       <c r="P94" t="s">
         <v>10</v>
       </c>
-      <c r="Q94">
+      <c r="R94">
         <v>6800</v>
-      </c>
-      <c r="R94">
-        <v>39</v>
       </c>
       <c r="S94">
         <v>39</v>
       </c>
       <c r="T94">
+        <v>39</v>
+      </c>
+      <c r="U94">
         <v>40000</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>1800</v>
       </c>
-      <c r="V94" t="s">
-        <v>1</v>
-      </c>
       <c r="W94" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8065,29 +8073,29 @@
       <c r="P95" t="s">
         <v>1</v>
       </c>
-      <c r="Q95">
+      <c r="R95">
         <v>4500</v>
-      </c>
-      <c r="R95">
-        <v>35</v>
       </c>
       <c r="S95">
         <v>35</v>
       </c>
       <c r="T95">
+        <v>35</v>
+      </c>
+      <c r="U95">
         <v>16000</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>1300</v>
       </c>
-      <c r="V95" t="s">
-        <v>1</v>
-      </c>
       <c r="W95" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8136,29 +8144,29 @@
       <c r="P96" t="s">
         <v>10</v>
       </c>
-      <c r="Q96">
+      <c r="R96">
         <v>4500</v>
-      </c>
-      <c r="R96">
-        <v>35</v>
       </c>
       <c r="S96">
         <v>35</v>
       </c>
       <c r="T96">
+        <v>35</v>
+      </c>
+      <c r="U96">
         <v>16000</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>1300</v>
       </c>
-      <c r="V96" t="s">
+      <c r="W96" t="s">
         <v>11</v>
       </c>
-      <c r="W96" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8207,29 +8215,29 @@
       <c r="P97" t="s">
         <v>10</v>
       </c>
-      <c r="Q97">
+      <c r="R97">
         <v>7000</v>
-      </c>
-      <c r="R97">
-        <v>42</v>
       </c>
       <c r="S97">
         <v>42</v>
       </c>
       <c r="T97">
+        <v>42</v>
+      </c>
+      <c r="U97">
         <v>42000</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>650</v>
       </c>
-      <c r="V97" t="s">
+      <c r="W97" t="s">
         <v>11</v>
       </c>
-      <c r="W97" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8278,29 +8286,29 @@
       <c r="P98" t="s">
         <v>10</v>
       </c>
-      <c r="Q98">
+      <c r="R98">
         <v>1500</v>
       </c>
-      <c r="R98">
-        <v>10</v>
-      </c>
       <c r="S98">
         <v>10</v>
       </c>
       <c r="T98">
+        <v>10</v>
+      </c>
+      <c r="U98">
         <v>11000</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>800</v>
       </c>
-      <c r="V98" t="s">
+      <c r="W98" t="s">
         <v>11</v>
       </c>
-      <c r="W98" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8349,29 +8357,29 @@
       <c r="P99" t="s">
         <v>1</v>
       </c>
-      <c r="Q99">
+      <c r="R99">
         <v>10000</v>
-      </c>
-      <c r="R99">
-        <v>56</v>
       </c>
       <c r="S99">
         <v>56</v>
       </c>
       <c r="T99">
+        <v>56</v>
+      </c>
+      <c r="U99">
         <v>45000</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>800</v>
       </c>
-      <c r="V99" t="s">
-        <v>1</v>
-      </c>
       <c r="W99" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8420,29 +8428,29 @@
       <c r="P100" t="s">
         <v>10</v>
       </c>
-      <c r="Q100">
+      <c r="R100">
         <v>11000</v>
-      </c>
-      <c r="R100">
-        <v>57</v>
       </c>
       <c r="S100">
         <v>57</v>
       </c>
       <c r="T100">
+        <v>57</v>
+      </c>
+      <c r="U100">
         <v>45000</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>300</v>
       </c>
-      <c r="V100" t="s">
+      <c r="W100" t="s">
         <v>11</v>
       </c>
-      <c r="W100" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X100" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8491,29 +8499,29 @@
       <c r="P101" t="s">
         <v>10</v>
       </c>
-      <c r="Q101">
+      <c r="R101">
         <v>8500</v>
-      </c>
-      <c r="R101">
-        <v>50</v>
       </c>
       <c r="S101">
         <v>50</v>
       </c>
       <c r="T101">
+        <v>50</v>
+      </c>
+      <c r="U101">
         <v>30000</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>600</v>
       </c>
-      <c r="V101" t="s">
+      <c r="W101" t="s">
         <v>11</v>
       </c>
-      <c r="W101" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8562,29 +8570,29 @@
       <c r="P102" t="s">
         <v>1</v>
       </c>
-      <c r="Q102">
+      <c r="R102">
         <v>8500</v>
-      </c>
-      <c r="R102">
-        <v>50</v>
       </c>
       <c r="S102">
         <v>50</v>
       </c>
       <c r="T102">
+        <v>50</v>
+      </c>
+      <c r="U102">
         <v>30000</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>800</v>
       </c>
-      <c r="V102" t="s">
-        <v>1</v>
-      </c>
       <c r="W102" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -8633,29 +8641,29 @@
       <c r="P103" t="s">
         <v>10</v>
       </c>
-      <c r="Q103">
+      <c r="R103">
         <v>2000</v>
-      </c>
-      <c r="R103">
-        <v>20</v>
       </c>
       <c r="S103">
         <v>20</v>
       </c>
       <c r="T103">
+        <v>20</v>
+      </c>
+      <c r="U103">
         <v>15000</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>300</v>
       </c>
-      <c r="V103" t="s">
+      <c r="W103" t="s">
         <v>11</v>
       </c>
-      <c r="W103" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X103" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -8704,29 +8712,29 @@
       <c r="P104" t="s">
         <v>10</v>
       </c>
-      <c r="Q104">
+      <c r="R104">
         <v>4000</v>
-      </c>
-      <c r="R104">
-        <v>33</v>
       </c>
       <c r="S104">
         <v>33</v>
       </c>
       <c r="T104">
+        <v>33</v>
+      </c>
+      <c r="U104">
         <v>26000</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>800</v>
       </c>
-      <c r="V104" t="s">
+      <c r="W104" t="s">
         <v>11</v>
       </c>
-      <c r="W104" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -8775,29 +8783,29 @@
       <c r="P105" t="s">
         <v>1</v>
       </c>
-      <c r="Q105">
+      <c r="R105">
         <v>9500</v>
-      </c>
-      <c r="R105">
-        <v>45</v>
       </c>
       <c r="S105">
         <v>45</v>
       </c>
       <c r="T105">
+        <v>45</v>
+      </c>
+      <c r="U105">
         <v>35000</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>1300</v>
       </c>
-      <c r="V105" t="s">
-        <v>1</v>
-      </c>
       <c r="W105" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -8846,29 +8854,29 @@
       <c r="P106" t="s">
         <v>10</v>
       </c>
-      <c r="Q106">
+      <c r="R106">
         <v>9000</v>
-      </c>
-      <c r="R106">
-        <v>43</v>
       </c>
       <c r="S106">
         <v>43</v>
       </c>
       <c r="T106">
+        <v>43</v>
+      </c>
+      <c r="U106">
         <v>35000</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>1800</v>
       </c>
-      <c r="V106" t="s">
+      <c r="W106" t="s">
         <v>11</v>
       </c>
-      <c r="W106" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -8917,29 +8925,29 @@
       <c r="P107" t="s">
         <v>1</v>
       </c>
-      <c r="Q107">
+      <c r="R107">
         <v>9000</v>
-      </c>
-      <c r="R107">
-        <v>52</v>
       </c>
       <c r="S107">
         <v>52</v>
       </c>
       <c r="T107">
+        <v>52</v>
+      </c>
+      <c r="U107">
         <v>20000</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>2200</v>
       </c>
-      <c r="V107" t="s">
-        <v>1</v>
-      </c>
       <c r="W107" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X107" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -8988,29 +8996,29 @@
       <c r="P108" t="s">
         <v>10</v>
       </c>
-      <c r="Q108">
+      <c r="R108">
         <v>3500</v>
-      </c>
-      <c r="R108">
-        <v>16</v>
       </c>
       <c r="S108">
         <v>16</v>
       </c>
       <c r="T108">
+        <v>16</v>
+      </c>
+      <c r="U108">
         <v>9000</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>250</v>
       </c>
-      <c r="V108" t="s">
+      <c r="W108" t="s">
         <v>11</v>
       </c>
-      <c r="W108" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X108" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -9059,29 +9067,29 @@
       <c r="P109" t="s">
         <v>1</v>
       </c>
-      <c r="Q109">
+      <c r="R109">
         <v>9000</v>
-      </c>
-      <c r="R109">
-        <v>60</v>
       </c>
       <c r="S109">
         <v>60</v>
       </c>
       <c r="T109">
+        <v>60</v>
+      </c>
+      <c r="U109">
         <v>20000</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>1300</v>
       </c>
-      <c r="V109" t="s">
-        <v>1</v>
-      </c>
       <c r="W109" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X109" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -9130,29 +9138,29 @@
       <c r="P110" t="s">
         <v>10</v>
       </c>
-      <c r="Q110">
+      <c r="R110">
         <v>9000</v>
-      </c>
-      <c r="R110">
-        <v>60</v>
       </c>
       <c r="S110">
         <v>60</v>
       </c>
       <c r="T110">
+        <v>60</v>
+      </c>
+      <c r="U110">
         <v>20000</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>180</v>
       </c>
-      <c r="V110" t="s">
+      <c r="W110" t="s">
         <v>11</v>
       </c>
-      <c r="W110" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X110" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9201,29 +9209,29 @@
       <c r="P111" t="s">
         <v>10</v>
       </c>
-      <c r="Q111">
+      <c r="R111">
         <v>5000</v>
-      </c>
-      <c r="R111">
-        <v>42</v>
       </c>
       <c r="S111">
         <v>42</v>
       </c>
       <c r="T111">
+        <v>42</v>
+      </c>
+      <c r="U111">
         <v>28000</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>800</v>
       </c>
-      <c r="V111" t="s">
+      <c r="W111" t="s">
         <v>11</v>
       </c>
-      <c r="W111" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X111" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9272,29 +9280,29 @@
       <c r="P112" t="s">
         <v>10</v>
       </c>
-      <c r="Q112">
+      <c r="R112">
         <v>8000</v>
-      </c>
-      <c r="R112">
-        <v>50</v>
       </c>
       <c r="S112">
         <v>50</v>
       </c>
       <c r="T112">
+        <v>50</v>
+      </c>
+      <c r="U112">
         <v>27000</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>650</v>
       </c>
-      <c r="V112" t="s">
+      <c r="W112" t="s">
         <v>11</v>
       </c>
-      <c r="W112" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X112" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9343,29 +9351,29 @@
       <c r="P113" t="s">
         <v>10</v>
       </c>
-      <c r="Q113">
+      <c r="R113">
         <v>9000</v>
-      </c>
-      <c r="R113">
-        <v>30</v>
       </c>
       <c r="S113">
         <v>30</v>
       </c>
       <c r="T113">
+        <v>30</v>
+      </c>
+      <c r="U113">
         <v>38000</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>1800</v>
       </c>
-      <c r="V113" t="s">
+      <c r="W113" t="s">
         <v>11</v>
       </c>
-      <c r="W113" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X113" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9414,29 +9422,29 @@
       <c r="P114" t="s">
         <v>1</v>
       </c>
-      <c r="Q114">
+      <c r="R114">
         <v>8000</v>
-      </c>
-      <c r="R114">
-        <v>42</v>
       </c>
       <c r="S114">
         <v>42</v>
       </c>
       <c r="T114">
+        <v>42</v>
+      </c>
+      <c r="U114">
         <v>15000</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>1300</v>
       </c>
-      <c r="V114" t="s">
-        <v>1</v>
-      </c>
       <c r="W114" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X114" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9485,29 +9493,29 @@
       <c r="P115" t="s">
         <v>10</v>
       </c>
-      <c r="Q115">
+      <c r="R115">
         <v>3750</v>
-      </c>
-      <c r="R115">
-        <v>25</v>
       </c>
       <c r="S115">
         <v>25</v>
       </c>
       <c r="T115">
+        <v>25</v>
+      </c>
+      <c r="U115">
         <v>14000</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>800</v>
       </c>
-      <c r="V115" t="s">
+      <c r="W115" t="s">
         <v>11</v>
       </c>
-      <c r="W115" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X115" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9556,29 +9564,29 @@
       <c r="P116" t="s">
         <v>10</v>
       </c>
-      <c r="Q116">
+      <c r="R116">
         <v>5000</v>
-      </c>
-      <c r="R116">
-        <v>38</v>
       </c>
       <c r="S116">
         <v>38</v>
       </c>
       <c r="T116">
+        <v>38</v>
+      </c>
+      <c r="U116">
         <v>25000</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>1350</v>
       </c>
-      <c r="V116" t="s">
+      <c r="W116" t="s">
         <v>11</v>
       </c>
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -9627,29 +9635,29 @@
       <c r="P117" t="s">
         <v>10</v>
       </c>
-      <c r="Q117">
+      <c r="R117">
         <v>3700</v>
-      </c>
-      <c r="R117">
-        <v>20</v>
       </c>
       <c r="S117">
         <v>20</v>
       </c>
       <c r="T117">
+        <v>20</v>
+      </c>
+      <c r="U117">
         <v>15000</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>1600</v>
       </c>
-      <c r="V117" t="s">
+      <c r="W117" t="s">
         <v>11</v>
       </c>
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -9698,29 +9706,29 @@
       <c r="P118" t="s">
         <v>10</v>
       </c>
-      <c r="Q118">
+      <c r="R118">
         <v>3000</v>
-      </c>
-      <c r="R118">
-        <v>25</v>
       </c>
       <c r="S118">
         <v>25</v>
       </c>
       <c r="T118">
+        <v>25</v>
+      </c>
+      <c r="U118">
         <v>18500</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>3000</v>
       </c>
-      <c r="V118" t="s">
+      <c r="W118" t="s">
         <v>11</v>
       </c>
-      <c r="W118" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X118" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -9769,29 +9777,29 @@
       <c r="P119" t="s">
         <v>1</v>
       </c>
-      <c r="Q119">
+      <c r="R119">
         <v>6500</v>
-      </c>
-      <c r="R119">
-        <v>38</v>
       </c>
       <c r="S119">
         <v>38</v>
       </c>
       <c r="T119">
+        <v>38</v>
+      </c>
+      <c r="U119">
         <v>10000</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>6000</v>
       </c>
-      <c r="V119" t="s">
+      <c r="W119" t="s">
         <v>11</v>
       </c>
-      <c r="W119" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X119" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -9840,29 +9848,29 @@
       <c r="P120" t="s">
         <v>10</v>
       </c>
-      <c r="Q120">
+      <c r="R120">
         <v>3000</v>
-      </c>
-      <c r="R120">
-        <v>21</v>
       </c>
       <c r="S120">
         <v>21</v>
       </c>
       <c r="T120">
+        <v>21</v>
+      </c>
+      <c r="U120">
         <v>5000</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>1700</v>
       </c>
-      <c r="V120" t="s">
+      <c r="W120" t="s">
         <v>11</v>
       </c>
-      <c r="W120" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X120" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -9911,29 +9919,29 @@
       <c r="P121" t="s">
         <v>10</v>
       </c>
-      <c r="Q121">
+      <c r="R121">
         <v>4000</v>
-      </c>
-      <c r="R121">
-        <v>25</v>
       </c>
       <c r="S121">
         <v>25</v>
       </c>
       <c r="T121">
+        <v>25</v>
+      </c>
+      <c r="U121">
         <v>35000</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>1500</v>
       </c>
-      <c r="V121" t="s">
+      <c r="W121" t="s">
         <v>11</v>
       </c>
-      <c r="W121" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X121" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -9982,29 +9990,29 @@
       <c r="P122" t="s">
         <v>10</v>
       </c>
-      <c r="Q122">
+      <c r="R122">
         <v>6000</v>
-      </c>
-      <c r="R122">
-        <v>50</v>
       </c>
       <c r="S122">
         <v>50</v>
       </c>
       <c r="T122">
+        <v>50</v>
+      </c>
+      <c r="U122">
         <v>40000</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>5600</v>
       </c>
-      <c r="V122" t="s">
+      <c r="W122" t="s">
         <v>11</v>
       </c>
-      <c r="W122" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X122" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -10053,29 +10061,29 @@
       <c r="P123" t="s">
         <v>10</v>
       </c>
-      <c r="Q123">
+      <c r="R123">
         <v>4500</v>
-      </c>
-      <c r="R123">
-        <v>35</v>
       </c>
       <c r="S123">
         <v>35</v>
       </c>
       <c r="T123">
+        <v>35</v>
+      </c>
+      <c r="U123">
         <v>26000</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>1200</v>
       </c>
-      <c r="V123" t="s">
+      <c r="W123" t="s">
         <v>11</v>
       </c>
-      <c r="W123" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X123" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -10124,29 +10132,29 @@
       <c r="P124" t="s">
         <v>10</v>
       </c>
-      <c r="Q124">
+      <c r="R124">
         <v>4000</v>
-      </c>
-      <c r="R124">
-        <v>24</v>
       </c>
       <c r="S124">
         <v>24</v>
       </c>
       <c r="T124">
+        <v>24</v>
+      </c>
+      <c r="U124">
         <v>7000</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>3000</v>
       </c>
-      <c r="V124" t="s">
-        <v>1</v>
-      </c>
       <c r="W124" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X124" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -10195,29 +10203,29 @@
       <c r="P125" t="s">
         <v>10</v>
       </c>
-      <c r="Q125">
+      <c r="R125">
         <v>7000</v>
-      </c>
-      <c r="R125">
-        <v>45</v>
       </c>
       <c r="S125">
         <v>45</v>
       </c>
       <c r="T125">
+        <v>45</v>
+      </c>
+      <c r="U125">
         <v>14000</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>5400</v>
       </c>
-      <c r="V125" t="s">
+      <c r="W125" t="s">
         <v>11</v>
       </c>
-      <c r="W125" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X125" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -10266,29 +10274,29 @@
       <c r="P126" t="s">
         <v>10</v>
       </c>
-      <c r="Q126">
+      <c r="R126">
         <v>6000</v>
-      </c>
-      <c r="R126">
-        <v>40</v>
       </c>
       <c r="S126">
         <v>40</v>
       </c>
       <c r="T126">
+        <v>40</v>
+      </c>
+      <c r="U126">
         <v>22000</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>2000</v>
       </c>
-      <c r="V126" t="s">
+      <c r="W126" t="s">
         <v>11</v>
       </c>
-      <c r="W126" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X126" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -10337,29 +10345,29 @@
       <c r="P127" t="s">
         <v>10</v>
       </c>
-      <c r="Q127">
+      <c r="R127">
         <v>6000</v>
-      </c>
-      <c r="R127">
-        <v>40</v>
       </c>
       <c r="S127">
         <v>40</v>
       </c>
       <c r="T127">
+        <v>40</v>
+      </c>
+      <c r="U127">
         <v>22000</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>2000</v>
       </c>
-      <c r="V127" t="s">
-        <v>1</v>
-      </c>
       <c r="W127" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X127" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -10408,29 +10416,29 @@
       <c r="P128" t="s">
         <v>10</v>
       </c>
-      <c r="Q128">
+      <c r="R128">
         <v>8750</v>
-      </c>
-      <c r="R128">
-        <v>52</v>
       </c>
       <c r="S128">
         <v>52</v>
       </c>
       <c r="T128">
+        <v>52</v>
+      </c>
+      <c r="U128">
         <v>1400</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>1800</v>
       </c>
-      <c r="V128" t="s">
-        <v>1</v>
-      </c>
       <c r="W128" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X128" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -10479,29 +10487,29 @@
       <c r="P129" t="s">
         <v>1</v>
       </c>
-      <c r="Q129">
+      <c r="R129">
         <v>11800</v>
-      </c>
-      <c r="R129">
-        <v>59</v>
       </c>
       <c r="S129">
         <v>59</v>
       </c>
       <c r="T129">
+        <v>59</v>
+      </c>
+      <c r="U129">
         <v>6000</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>12000</v>
       </c>
-      <c r="V129" t="s">
+      <c r="W129" t="s">
         <v>11</v>
       </c>
-      <c r="W129" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -10550,29 +10558,29 @@
       <c r="P130" t="s">
         <v>1</v>
       </c>
-      <c r="Q130">
+      <c r="R130">
         <v>10000</v>
-      </c>
-      <c r="R130">
-        <v>54</v>
       </c>
       <c r="S130">
         <v>54</v>
       </c>
       <c r="T130">
+        <v>54</v>
+      </c>
+      <c r="U130">
         <v>6000</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>7000</v>
       </c>
-      <c r="V130" t="s">
+      <c r="W130" t="s">
         <v>11</v>
       </c>
-      <c r="W130" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X130" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -10621,29 +10629,29 @@
       <c r="P131" t="s">
         <v>10</v>
       </c>
-      <c r="Q131">
+      <c r="R131">
         <v>7000</v>
-      </c>
-      <c r="R131">
-        <v>40</v>
       </c>
       <c r="S131">
         <v>40</v>
       </c>
       <c r="T131">
+        <v>40</v>
+      </c>
+      <c r="U131">
         <v>22000</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>2200</v>
       </c>
-      <c r="V131" t="s">
+      <c r="W131" t="s">
         <v>11</v>
       </c>
-      <c r="W131" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X131" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -10692,29 +10700,29 @@
       <c r="P132" t="s">
         <v>1</v>
       </c>
-      <c r="Q132">
+      <c r="R132">
         <v>12500</v>
-      </c>
-      <c r="R132">
-        <v>55</v>
       </c>
       <c r="S132">
         <v>55</v>
       </c>
       <c r="T132">
+        <v>55</v>
+      </c>
+      <c r="U132">
         <v>15000</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>10000</v>
       </c>
-      <c r="V132" t="s">
+      <c r="W132" t="s">
         <v>11</v>
       </c>
-      <c r="W132" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X132" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -10763,29 +10771,29 @@
       <c r="P133" t="s">
         <v>10</v>
       </c>
-      <c r="Q133">
+      <c r="R133">
         <v>4500</v>
-      </c>
-      <c r="R133">
-        <v>22</v>
       </c>
       <c r="S133">
         <v>22</v>
       </c>
       <c r="T133">
+        <v>22</v>
+      </c>
+      <c r="U133">
         <v>1550</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>1000</v>
       </c>
-      <c r="V133" t="s">
+      <c r="W133" t="s">
         <v>11</v>
       </c>
-      <c r="W133" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X133" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -10834,29 +10842,29 @@
       <c r="P134" t="s">
         <v>1</v>
       </c>
-      <c r="Q134">
+      <c r="R134">
         <v>9500</v>
-      </c>
-      <c r="R134">
-        <v>35</v>
       </c>
       <c r="S134">
         <v>35</v>
       </c>
       <c r="T134">
+        <v>35</v>
+      </c>
+      <c r="U134">
         <v>16300</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>7000</v>
       </c>
-      <c r="V134" t="s">
+      <c r="W134" t="s">
         <v>11</v>
       </c>
-      <c r="W134" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X134" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -10905,29 +10913,29 @@
       <c r="P135" t="s">
         <v>10</v>
       </c>
-      <c r="Q135">
+      <c r="R135">
         <v>10000</v>
-      </c>
-      <c r="R135">
-        <v>38</v>
       </c>
       <c r="S135">
         <v>38</v>
       </c>
       <c r="T135">
+        <v>38</v>
+      </c>
+      <c r="U135">
         <v>25000</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>2500</v>
       </c>
-      <c r="V135" t="s">
+      <c r="W135" t="s">
         <v>11</v>
       </c>
-      <c r="W135" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X135" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -10976,29 +10984,29 @@
       <c r="P136" t="s">
         <v>10</v>
       </c>
-      <c r="Q136">
+      <c r="R136">
         <v>2500</v>
-      </c>
-      <c r="R136">
-        <v>18</v>
       </c>
       <c r="S136">
         <v>18</v>
       </c>
       <c r="T136">
+        <v>18</v>
+      </c>
+      <c r="U136">
         <v>16990</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>500</v>
       </c>
-      <c r="V136" t="s">
+      <c r="W136" t="s">
         <v>11</v>
       </c>
-      <c r="W136" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X136" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -11047,29 +11055,29 @@
       <c r="P137" t="s">
         <v>10</v>
       </c>
-      <c r="Q137">
+      <c r="R137">
         <v>5750</v>
-      </c>
-      <c r="R137">
-        <v>43</v>
       </c>
       <c r="S137">
         <v>43</v>
       </c>
       <c r="T137">
+        <v>43</v>
+      </c>
+      <c r="U137">
         <v>15770</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>1350</v>
       </c>
-      <c r="V137" t="s">
+      <c r="W137" t="s">
         <v>11</v>
       </c>
-      <c r="W137" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X137" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -11118,29 +11126,29 @@
       <c r="P138" t="s">
         <v>10</v>
       </c>
-      <c r="Q138">
+      <c r="R138">
         <v>12250</v>
-      </c>
-      <c r="R138">
-        <v>80</v>
       </c>
       <c r="S138">
         <v>80</v>
       </c>
       <c r="T138">
+        <v>80</v>
+      </c>
+      <c r="U138">
         <v>1500</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>2200</v>
       </c>
-      <c r="V138" t="s">
+      <c r="W138" t="s">
         <v>11</v>
       </c>
-      <c r="W138" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X138" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -11189,29 +11197,29 @@
       <c r="P139" t="s">
         <v>10</v>
       </c>
-      <c r="Q139">
+      <c r="R139">
         <v>6000</v>
-      </c>
-      <c r="R139">
-        <v>30</v>
       </c>
       <c r="S139">
         <v>30</v>
       </c>
       <c r="T139">
+        <v>30</v>
+      </c>
+      <c r="U139">
         <v>40000</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>3800</v>
       </c>
-      <c r="V139" t="s">
+      <c r="W139" t="s">
         <v>11</v>
       </c>
-      <c r="W139" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X139" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -11260,29 +11268,29 @@
       <c r="P140" t="s">
         <v>10</v>
       </c>
-      <c r="Q140">
+      <c r="R140">
         <v>9500</v>
-      </c>
-      <c r="R140">
-        <v>40</v>
       </c>
       <c r="S140">
         <v>40</v>
       </c>
       <c r="T140">
+        <v>40</v>
+      </c>
+      <c r="U140">
         <v>17000</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>1600</v>
       </c>
-      <c r="V140" t="s">
+      <c r="W140" t="s">
         <v>11</v>
       </c>
-      <c r="W140" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X140" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -11331,29 +11339,29 @@
       <c r="P141" t="s">
         <v>1</v>
       </c>
-      <c r="Q141">
+      <c r="R141">
         <v>9650</v>
-      </c>
-      <c r="R141">
-        <v>42</v>
       </c>
       <c r="S141">
         <v>42</v>
       </c>
       <c r="T141">
+        <v>42</v>
+      </c>
+      <c r="U141">
         <v>70000</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>7000</v>
       </c>
-      <c r="V141" t="s">
+      <c r="W141" t="s">
         <v>11</v>
       </c>
-      <c r="W141" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -11402,29 +11410,29 @@
       <c r="P142" t="s">
         <v>10</v>
       </c>
-      <c r="Q142">
+      <c r="R142">
         <v>5000</v>
-      </c>
-      <c r="R142">
-        <v>26</v>
       </c>
       <c r="S142">
         <v>26</v>
       </c>
       <c r="T142">
-        <v>5000</v>
+        <v>26</v>
       </c>
       <c r="U142">
         <v>5000</v>
       </c>
-      <c r="V142" t="s">
+      <c r="V142">
+        <v>5000</v>
+      </c>
+      <c r="W142" t="s">
         <v>11</v>
       </c>
-      <c r="W142" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -11473,29 +11481,29 @@
       <c r="P143" t="s">
         <v>1</v>
       </c>
-      <c r="Q143">
+      <c r="R143">
         <v>9500</v>
-      </c>
-      <c r="R143">
-        <v>50</v>
       </c>
       <c r="S143">
         <v>50</v>
       </c>
       <c r="T143">
+        <v>50</v>
+      </c>
+      <c r="U143">
         <v>25000</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>7000</v>
       </c>
-      <c r="V143" t="s">
+      <c r="W143" t="s">
         <v>11</v>
       </c>
-      <c r="W143" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X143" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -11544,29 +11552,29 @@
       <c r="P144" t="s">
         <v>10</v>
       </c>
-      <c r="Q144">
+      <c r="R144">
         <v>3250</v>
-      </c>
-      <c r="R144">
-        <v>21</v>
       </c>
       <c r="S144">
         <v>21</v>
       </c>
       <c r="T144">
+        <v>21</v>
+      </c>
+      <c r="U144">
         <v>17000</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>1000</v>
       </c>
-      <c r="V144" t="s">
+      <c r="W144" t="s">
         <v>11</v>
       </c>
-      <c r="W144" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X144" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -11615,29 +11623,29 @@
       <c r="P145" t="s">
         <v>10</v>
       </c>
-      <c r="Q145">
+      <c r="R145">
         <v>800</v>
-      </c>
-      <c r="R145">
-        <v>50</v>
       </c>
       <c r="S145">
         <v>50</v>
       </c>
       <c r="T145">
+        <v>50</v>
+      </c>
+      <c r="U145">
         <v>65000</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>6000</v>
       </c>
-      <c r="V145" t="s">
+      <c r="W145" t="s">
         <v>11</v>
       </c>
-      <c r="W145" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X145" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -11686,29 +11694,29 @@
       <c r="P146" t="s">
         <v>1</v>
       </c>
-      <c r="Q146">
+      <c r="R146">
         <v>11250</v>
-      </c>
-      <c r="R146">
-        <v>64</v>
       </c>
       <c r="S146">
         <v>64</v>
       </c>
       <c r="T146">
+        <v>64</v>
+      </c>
+      <c r="U146">
         <v>12500</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>9000</v>
       </c>
-      <c r="V146" t="s">
-        <v>1</v>
-      </c>
       <c r="W146" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X146" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -11757,29 +11765,29 @@
       <c r="P147" t="s">
         <v>10</v>
       </c>
-      <c r="Q147">
+      <c r="R147">
         <v>8500</v>
-      </c>
-      <c r="R147">
-        <v>39</v>
       </c>
       <c r="S147">
         <v>39</v>
       </c>
       <c r="T147">
+        <v>39</v>
+      </c>
+      <c r="U147">
         <v>30000</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>3000</v>
       </c>
-      <c r="V147" t="s">
+      <c r="W147" t="s">
         <v>11</v>
       </c>
-      <c r="W147" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X147" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -11828,29 +11836,29 @@
       <c r="P148" t="s">
         <v>1</v>
       </c>
-      <c r="Q148">
+      <c r="R148">
         <v>10250</v>
-      </c>
-      <c r="R148">
-        <v>42</v>
       </c>
       <c r="S148">
         <v>42</v>
       </c>
       <c r="T148">
+        <v>42</v>
+      </c>
+      <c r="U148">
         <v>75000</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>8700</v>
       </c>
-      <c r="V148" t="s">
+      <c r="W148" t="s">
         <v>11</v>
       </c>
-      <c r="W148" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X148" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -11899,29 +11907,29 @@
       <c r="P149" t="s">
         <v>10</v>
       </c>
-      <c r="Q149">
+      <c r="R149">
         <v>9000</v>
-      </c>
-      <c r="R149">
-        <v>46</v>
       </c>
       <c r="S149">
         <v>46</v>
       </c>
       <c r="T149">
+        <v>46</v>
+      </c>
+      <c r="U149">
         <v>16000</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>1500</v>
       </c>
-      <c r="V149" t="s">
-        <v>1</v>
-      </c>
       <c r="W149" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X149" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -11970,29 +11978,29 @@
       <c r="P150" t="s">
         <v>1</v>
       </c>
-      <c r="Q150">
+      <c r="R150">
         <v>9000</v>
-      </c>
-      <c r="R150">
-        <v>46</v>
       </c>
       <c r="S150">
         <v>46</v>
       </c>
       <c r="T150">
+        <v>46</v>
+      </c>
+      <c r="U150">
         <v>10000</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>6800</v>
       </c>
-      <c r="V150" t="s">
-        <v>1</v>
-      </c>
       <c r="W150" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X150" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -12041,29 +12049,29 @@
       <c r="P151" t="s">
         <v>10</v>
       </c>
-      <c r="Q151">
+      <c r="R151">
         <v>4500</v>
-      </c>
-      <c r="R151">
-        <v>25</v>
       </c>
       <c r="S151">
         <v>25</v>
       </c>
       <c r="T151">
+        <v>25</v>
+      </c>
+      <c r="U151">
         <v>30000</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>2500</v>
       </c>
-      <c r="V151" t="s">
+      <c r="W151" t="s">
         <v>11</v>
       </c>
-      <c r="W151" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X151" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -12112,29 +12120,29 @@
       <c r="P152" t="s">
         <v>1</v>
       </c>
-      <c r="Q152">
+      <c r="R152">
         <v>10000</v>
-      </c>
-      <c r="R152">
-        <v>37</v>
       </c>
       <c r="S152">
         <v>37</v>
       </c>
       <c r="T152">
+        <v>37</v>
+      </c>
+      <c r="U152">
         <v>45000</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>6500</v>
       </c>
-      <c r="V152" t="s">
-        <v>1</v>
-      </c>
       <c r="W152" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X152" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -12183,29 +12191,29 @@
       <c r="P153" t="s">
         <v>10</v>
       </c>
-      <c r="Q153">
+      <c r="R153">
         <v>5000</v>
-      </c>
-      <c r="R153">
-        <v>35</v>
       </c>
       <c r="S153">
         <v>35</v>
       </c>
       <c r="T153">
+        <v>35</v>
+      </c>
+      <c r="U153">
         <v>9000</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>3300</v>
       </c>
-      <c r="V153" t="s">
+      <c r="W153" t="s">
         <v>11</v>
       </c>
-      <c r="W153" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X153" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -12254,29 +12262,29 @@
       <c r="P154" t="s">
         <v>10</v>
       </c>
-      <c r="Q154">
+      <c r="R154">
         <v>1500</v>
       </c>
-      <c r="R154">
-        <v>10</v>
-      </c>
       <c r="S154">
         <v>10</v>
       </c>
       <c r="T154">
+        <v>10</v>
+      </c>
+      <c r="U154">
         <v>24000</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>1500</v>
       </c>
-      <c r="V154" t="s">
-        <v>1</v>
-      </c>
       <c r="W154" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X154" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -12325,29 +12333,29 @@
       <c r="P155" t="s">
         <v>1</v>
       </c>
-      <c r="Q155">
+      <c r="R155">
         <v>10000</v>
-      </c>
-      <c r="R155">
-        <v>46</v>
       </c>
       <c r="S155">
         <v>46</v>
       </c>
       <c r="T155">
+        <v>46</v>
+      </c>
+      <c r="U155">
         <v>16000</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>5500</v>
       </c>
-      <c r="V155" t="s">
-        <v>1</v>
-      </c>
       <c r="W155" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X155" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -12396,29 +12404,29 @@
       <c r="P156" t="s">
         <v>10</v>
       </c>
-      <c r="Q156">
+      <c r="R156">
         <v>4000</v>
-      </c>
-      <c r="R156">
-        <v>33</v>
       </c>
       <c r="S156">
         <v>33</v>
       </c>
       <c r="T156">
+        <v>33</v>
+      </c>
+      <c r="U156">
         <v>80000</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>3000</v>
       </c>
-      <c r="V156" t="s">
+      <c r="W156" t="s">
         <v>11</v>
       </c>
-      <c r="W156" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X156" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -12467,29 +12475,29 @@
       <c r="P157" t="s">
         <v>1</v>
       </c>
-      <c r="Q157">
+      <c r="R157">
         <v>10500</v>
-      </c>
-      <c r="R157">
-        <v>57</v>
       </c>
       <c r="S157">
         <v>57</v>
       </c>
       <c r="T157">
+        <v>57</v>
+      </c>
+      <c r="U157">
         <v>16000</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>8000</v>
       </c>
-      <c r="V157" t="s">
+      <c r="W157" t="s">
         <v>11</v>
       </c>
-      <c r="W157" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X157" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -12538,29 +12546,29 @@
       <c r="P158" t="s">
         <v>10</v>
       </c>
-      <c r="Q158">
+      <c r="R158">
         <v>9500</v>
-      </c>
-      <c r="R158">
-        <v>54</v>
       </c>
       <c r="S158">
         <v>54</v>
       </c>
       <c r="T158">
+        <v>54</v>
+      </c>
+      <c r="U158">
         <v>22000</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>5000</v>
       </c>
-      <c r="V158" t="s">
-        <v>1</v>
-      </c>
       <c r="W158" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X158" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -12609,29 +12617,29 @@
       <c r="P159" t="s">
         <v>10</v>
       </c>
-      <c r="Q159">
+      <c r="R159">
         <v>6000</v>
-      </c>
-      <c r="R159">
-        <v>35</v>
       </c>
       <c r="S159">
         <v>35</v>
       </c>
       <c r="T159">
+        <v>35</v>
+      </c>
+      <c r="U159">
         <v>13000</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>1850</v>
       </c>
-      <c r="V159" t="s">
+      <c r="W159" t="s">
         <v>11</v>
       </c>
-      <c r="W159" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X159" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -12680,29 +12688,29 @@
       <c r="P160" t="s">
         <v>10</v>
       </c>
-      <c r="Q160">
+      <c r="R160">
         <v>3500</v>
-      </c>
-      <c r="R160">
-        <v>20</v>
       </c>
       <c r="S160">
         <v>20</v>
       </c>
       <c r="T160">
+        <v>20</v>
+      </c>
+      <c r="U160">
         <v>17800</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>1500</v>
       </c>
-      <c r="V160" t="s">
+      <c r="W160" t="s">
         <v>11</v>
       </c>
-      <c r="W160" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X160" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -12751,29 +12759,29 @@
       <c r="P161" t="s">
         <v>10</v>
       </c>
-      <c r="Q161">
+      <c r="R161">
         <v>6750</v>
-      </c>
-      <c r="R161">
-        <v>50</v>
       </c>
       <c r="S161">
         <v>50</v>
       </c>
       <c r="T161">
+        <v>50</v>
+      </c>
+      <c r="U161">
         <v>16900</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>5500</v>
       </c>
-      <c r="V161" t="s">
-        <v>1</v>
-      </c>
       <c r="W161" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X161" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -12822,29 +12830,29 @@
       <c r="P162" t="s">
         <v>10</v>
       </c>
-      <c r="Q162">
+      <c r="R162">
         <v>10250</v>
-      </c>
-      <c r="R162">
-        <v>65</v>
       </c>
       <c r="S162">
         <v>65</v>
       </c>
       <c r="T162">
+        <v>65</v>
+      </c>
+      <c r="U162">
         <v>15000</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>1800</v>
       </c>
-      <c r="V162" t="s">
+      <c r="W162" t="s">
         <v>11</v>
       </c>
-      <c r="W162" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X162" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -12893,29 +12901,29 @@
       <c r="P163" t="s">
         <v>1</v>
       </c>
-      <c r="Q163">
+      <c r="R163">
         <v>9000</v>
-      </c>
-      <c r="R163">
-        <v>36</v>
       </c>
       <c r="S163">
         <v>36</v>
       </c>
       <c r="T163">
+        <v>36</v>
+      </c>
+      <c r="U163">
         <v>35000</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>6900</v>
       </c>
-      <c r="V163" t="s">
+      <c r="W163" t="s">
         <v>11</v>
       </c>
-      <c r="W163" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X163" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -12964,29 +12972,29 @@
       <c r="P164" t="s">
         <v>1</v>
       </c>
-      <c r="Q164">
+      <c r="R164">
         <v>12500</v>
-      </c>
-      <c r="R164">
-        <v>61</v>
       </c>
       <c r="S164">
         <v>61</v>
       </c>
       <c r="T164">
+        <v>61</v>
+      </c>
+      <c r="U164">
         <v>44000</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>10000</v>
       </c>
-      <c r="V164" t="s">
+      <c r="W164" t="s">
         <v>11</v>
       </c>
-      <c r="W164" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X164" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -13035,29 +13043,29 @@
       <c r="P165" t="s">
         <v>10</v>
       </c>
-      <c r="Q165">
+      <c r="R165">
         <v>7000</v>
-      </c>
-      <c r="R165">
-        <v>42</v>
       </c>
       <c r="S165">
         <v>42</v>
       </c>
       <c r="T165">
+        <v>42</v>
+      </c>
+      <c r="U165">
         <v>20000</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>1800</v>
       </c>
-      <c r="V165" t="s">
+      <c r="W165" t="s">
         <v>11</v>
       </c>
-      <c r="W165" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X165" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -13106,29 +13114,29 @@
       <c r="P166" t="s">
         <v>10</v>
       </c>
-      <c r="Q166">
+      <c r="R166">
         <v>9000</v>
-      </c>
-      <c r="R166">
-        <v>30</v>
       </c>
       <c r="S166">
         <v>30</v>
       </c>
       <c r="T166">
+        <v>30</v>
+      </c>
+      <c r="U166">
         <v>3000</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>6500</v>
       </c>
-      <c r="V166" t="s">
-        <v>1</v>
-      </c>
       <c r="W166" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X166" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -13177,29 +13185,29 @@
       <c r="P167" t="s">
         <v>10</v>
       </c>
-      <c r="Q167">
+      <c r="R167">
         <v>1400</v>
-      </c>
-      <c r="R167">
-        <v>50</v>
       </c>
       <c r="S167">
         <v>50</v>
       </c>
       <c r="T167">
+        <v>50</v>
+      </c>
+      <c r="U167">
         <v>50000</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>5000</v>
       </c>
-      <c r="V167" t="s">
+      <c r="W167" t="s">
         <v>11</v>
       </c>
-      <c r="W167" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X167" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -13248,29 +13256,29 @@
       <c r="P168" t="s">
         <v>10</v>
       </c>
-      <c r="Q168">
+      <c r="R168">
         <v>2000</v>
       </c>
-      <c r="R168">
-        <v>10</v>
-      </c>
       <c r="S168">
         <v>10</v>
       </c>
       <c r="T168">
+        <v>10</v>
+      </c>
+      <c r="U168">
         <v>42000</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>1000</v>
       </c>
-      <c r="V168" t="s">
+      <c r="W168" t="s">
         <v>11</v>
       </c>
-      <c r="W168" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X168" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -13319,29 +13327,29 @@
       <c r="P169" t="s">
         <v>10</v>
       </c>
-      <c r="Q169">
+      <c r="R169">
         <v>2700</v>
-      </c>
-      <c r="R169">
-        <v>25</v>
       </c>
       <c r="S169">
         <v>25</v>
       </c>
       <c r="T169">
+        <v>25</v>
+      </c>
+      <c r="U169">
         <v>18000</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>1500</v>
       </c>
-      <c r="V169" t="s">
+      <c r="W169" t="s">
         <v>11</v>
       </c>
-      <c r="W169" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X169" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -13390,29 +13398,29 @@
       <c r="P170" t="s">
         <v>10</v>
       </c>
-      <c r="Q170">
+      <c r="R170">
         <v>9750</v>
-      </c>
-      <c r="R170">
-        <v>85</v>
       </c>
       <c r="S170">
         <v>85</v>
       </c>
       <c r="T170">
+        <v>85</v>
+      </c>
+      <c r="U170">
         <v>50000</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>7000</v>
       </c>
-      <c r="V170" t="s">
+      <c r="W170" t="s">
         <v>11</v>
       </c>
-      <c r="W170" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X170" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -13461,29 +13469,29 @@
       <c r="P171" t="s">
         <v>10</v>
       </c>
-      <c r="Q171">
+      <c r="R171">
         <v>1250</v>
       </c>
-      <c r="R171">
-        <v>10</v>
-      </c>
       <c r="S171">
         <v>10</v>
       </c>
       <c r="T171">
+        <v>10</v>
+      </c>
+      <c r="U171">
         <v>5500</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>500</v>
       </c>
-      <c r="V171" t="s">
-        <v>1</v>
-      </c>
       <c r="W171" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X171" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -13532,29 +13540,29 @@
       <c r="P172" t="s">
         <v>10</v>
       </c>
-      <c r="Q172">
+      <c r="R172">
         <v>8000</v>
-      </c>
-      <c r="R172">
-        <v>36</v>
       </c>
       <c r="S172">
         <v>36</v>
       </c>
       <c r="T172">
+        <v>36</v>
+      </c>
+      <c r="U172">
         <v>15000</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>2800</v>
       </c>
-      <c r="V172" t="s">
-        <v>1</v>
-      </c>
       <c r="W172" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X172" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -13603,29 +13611,29 @@
       <c r="P173" t="s">
         <v>10</v>
       </c>
-      <c r="Q173">
+      <c r="R173">
         <v>1750</v>
-      </c>
-      <c r="R173">
-        <v>12</v>
       </c>
       <c r="S173">
         <v>12</v>
       </c>
       <c r="T173">
+        <v>12</v>
+      </c>
+      <c r="U173">
         <v>35000</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>2400</v>
       </c>
-      <c r="V173" t="s">
+      <c r="W173" t="s">
         <v>11</v>
       </c>
-      <c r="W173" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X173" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -13674,29 +13682,29 @@
       <c r="P174" t="s">
         <v>10</v>
       </c>
-      <c r="Q174">
+      <c r="R174">
         <v>13000</v>
-      </c>
-      <c r="R174">
-        <v>75</v>
       </c>
       <c r="S174">
         <v>75</v>
       </c>
       <c r="T174">
+        <v>75</v>
+      </c>
+      <c r="U174">
         <v>3000</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>2400</v>
       </c>
-      <c r="V174" t="s">
+      <c r="W174" t="s">
         <v>11</v>
       </c>
-      <c r="W174" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X174" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -13745,29 +13753,29 @@
       <c r="P175" t="s">
         <v>10</v>
       </c>
-      <c r="Q175">
+      <c r="R175">
         <v>9500</v>
-      </c>
-      <c r="R175">
-        <v>55</v>
       </c>
       <c r="S175">
         <v>55</v>
       </c>
       <c r="T175">
+        <v>55</v>
+      </c>
+      <c r="U175">
         <v>55000</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>3000</v>
       </c>
-      <c r="V175" t="s">
-        <v>1</v>
-      </c>
       <c r="W175" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X175" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -13816,29 +13824,29 @@
       <c r="P176" t="s">
         <v>10</v>
       </c>
-      <c r="Q176">
+      <c r="R176">
         <v>4000</v>
-      </c>
-      <c r="R176">
-        <v>30</v>
       </c>
       <c r="S176">
         <v>30</v>
       </c>
       <c r="T176">
+        <v>30</v>
+      </c>
+      <c r="U176">
         <v>33000</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>2800</v>
       </c>
-      <c r="V176" t="s">
+      <c r="W176" t="s">
         <v>11</v>
       </c>
-      <c r="W176" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X176" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -13887,29 +13895,29 @@
       <c r="P177" t="s">
         <v>10</v>
       </c>
-      <c r="Q177">
+      <c r="R177">
         <v>7500</v>
-      </c>
-      <c r="R177">
-        <v>50</v>
       </c>
       <c r="S177">
         <v>50</v>
       </c>
       <c r="T177">
+        <v>50</v>
+      </c>
+      <c r="U177">
         <v>30000</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>4500</v>
       </c>
-      <c r="V177" t="s">
-        <v>1</v>
-      </c>
       <c r="W177" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X177" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -13958,29 +13966,29 @@
       <c r="P178" t="s">
         <v>10</v>
       </c>
-      <c r="Q178">
+      <c r="R178">
         <v>5000</v>
-      </c>
-      <c r="R178">
-        <v>33</v>
       </c>
       <c r="S178">
         <v>33</v>
       </c>
       <c r="T178">
+        <v>33</v>
+      </c>
+      <c r="U178">
         <v>5000</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>2000</v>
       </c>
-      <c r="V178" t="s">
+      <c r="W178" t="s">
         <v>11</v>
       </c>
-      <c r="W178" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X178" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -14029,29 +14037,29 @@
       <c r="P179" t="s">
         <v>10</v>
       </c>
-      <c r="Q179">
+      <c r="R179">
         <v>6000</v>
-      </c>
-      <c r="R179">
-        <v>40</v>
       </c>
       <c r="S179">
         <v>40</v>
       </c>
       <c r="T179">
+        <v>40</v>
+      </c>
+      <c r="U179">
         <v>35000</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>5000</v>
       </c>
-      <c r="V179" t="s">
-        <v>1</v>
-      </c>
       <c r="W179" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X179" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -14100,29 +14108,29 @@
       <c r="P180" t="s">
         <v>10</v>
       </c>
-      <c r="Q180">
+      <c r="R180">
         <v>15500</v>
-      </c>
-      <c r="R180">
-        <v>58</v>
       </c>
       <c r="S180">
         <v>58</v>
       </c>
       <c r="T180">
+        <v>58</v>
+      </c>
+      <c r="U180">
         <v>3000</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>2600</v>
       </c>
-      <c r="V180" t="s">
-        <v>1</v>
-      </c>
       <c r="W180" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X180" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -14171,29 +14179,29 @@
       <c r="P181" t="s">
         <v>10</v>
       </c>
-      <c r="Q181">
+      <c r="R181">
         <v>4000</v>
-      </c>
-      <c r="R181">
-        <v>30</v>
       </c>
       <c r="S181">
         <v>30</v>
       </c>
       <c r="T181">
+        <v>30</v>
+      </c>
+      <c r="U181">
         <v>33000</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>3000</v>
       </c>
-      <c r="V181" t="s">
+      <c r="W181" t="s">
         <v>11</v>
       </c>
-      <c r="W181" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X181" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -14242,29 +14250,29 @@
       <c r="P182" t="s">
         <v>10</v>
       </c>
-      <c r="Q182">
+      <c r="R182">
         <v>3250</v>
-      </c>
-      <c r="R182">
-        <v>23</v>
       </c>
       <c r="S182">
         <v>23</v>
       </c>
       <c r="T182">
+        <v>23</v>
+      </c>
+      <c r="U182">
         <v>15000</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>1400</v>
       </c>
-      <c r="V182" t="s">
+      <c r="W182" t="s">
         <v>11</v>
       </c>
-      <c r="W182" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X182" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -14313,29 +14321,29 @@
       <c r="P183" t="s">
         <v>10</v>
       </c>
-      <c r="Q183">
+      <c r="R183">
         <v>7500</v>
-      </c>
-      <c r="R183">
-        <v>45</v>
       </c>
       <c r="S183">
         <v>45</v>
       </c>
       <c r="T183">
+        <v>45</v>
+      </c>
+      <c r="U183">
         <v>21000</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>2400</v>
       </c>
-      <c r="V183" t="s">
+      <c r="W183" t="s">
         <v>11</v>
       </c>
-      <c r="W183" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X183" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -14384,29 +14392,29 @@
       <c r="P184" t="s">
         <v>1</v>
       </c>
-      <c r="Q184">
+      <c r="R184">
         <v>7000</v>
-      </c>
-      <c r="R184">
-        <v>43</v>
       </c>
       <c r="S184">
         <v>43</v>
       </c>
       <c r="T184">
+        <v>43</v>
+      </c>
+      <c r="U184">
         <v>25000</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>5500</v>
       </c>
-      <c r="V184" t="s">
+      <c r="W184" t="s">
         <v>11</v>
       </c>
-      <c r="W184" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X184" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -14455,29 +14463,29 @@
       <c r="P185" t="s">
         <v>10</v>
       </c>
-      <c r="Q185">
+      <c r="R185">
         <v>9500</v>
-      </c>
-      <c r="R185">
-        <v>60</v>
       </c>
       <c r="S185">
         <v>60</v>
       </c>
       <c r="T185">
+        <v>60</v>
+      </c>
+      <c r="U185">
         <v>50000</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>1500</v>
       </c>
-      <c r="V185" t="s">
+      <c r="W185" t="s">
         <v>11</v>
       </c>
-      <c r="W185" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X185" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -14526,29 +14534,29 @@
       <c r="P186" t="s">
         <v>10</v>
       </c>
-      <c r="Q186">
+      <c r="R186">
         <v>4250</v>
-      </c>
-      <c r="R186">
-        <v>35</v>
       </c>
       <c r="S186">
         <v>35</v>
       </c>
       <c r="T186">
+        <v>35</v>
+      </c>
+      <c r="U186">
         <v>23000</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>800</v>
       </c>
-      <c r="V186" t="s">
+      <c r="W186" t="s">
         <v>11</v>
       </c>
-      <c r="W186" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X186" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -14597,29 +14605,29 @@
       <c r="P187" t="s">
         <v>1</v>
       </c>
-      <c r="Q187">
+      <c r="R187">
         <v>10000</v>
-      </c>
-      <c r="R187">
-        <v>60</v>
       </c>
       <c r="S187">
         <v>60</v>
       </c>
       <c r="T187">
+        <v>60</v>
+      </c>
+      <c r="U187">
         <v>18000</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>13500</v>
       </c>
-      <c r="V187" t="s">
+      <c r="W187" t="s">
         <v>11</v>
       </c>
-      <c r="W187" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X187" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -14668,29 +14676,29 @@
       <c r="P188" t="s">
         <v>10</v>
       </c>
-      <c r="Q188">
+      <c r="R188">
         <v>3000</v>
-      </c>
-      <c r="R188">
-        <v>20</v>
       </c>
       <c r="S188">
         <v>20</v>
       </c>
       <c r="T188">
+        <v>20</v>
+      </c>
+      <c r="U188">
         <v>20000</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>1500</v>
       </c>
-      <c r="V188" t="s">
+      <c r="W188" t="s">
         <v>11</v>
       </c>
-      <c r="W188" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X188" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -14739,29 +14747,29 @@
       <c r="P189" t="s">
         <v>10</v>
       </c>
-      <c r="Q189">
+      <c r="R189">
         <v>9500</v>
-      </c>
-      <c r="R189">
-        <v>70</v>
       </c>
       <c r="S189">
         <v>70</v>
       </c>
       <c r="T189">
+        <v>70</v>
+      </c>
+      <c r="U189">
         <v>14500</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>2500</v>
       </c>
-      <c r="V189" t="s">
-        <v>1</v>
-      </c>
       <c r="W189" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X189" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -14810,29 +14818,29 @@
       <c r="P190" t="s">
         <v>1</v>
       </c>
-      <c r="Q190">
+      <c r="R190">
         <v>8000</v>
-      </c>
-      <c r="R190">
-        <v>50</v>
       </c>
       <c r="S190">
         <v>50</v>
       </c>
       <c r="T190">
+        <v>50</v>
+      </c>
+      <c r="U190">
         <v>14500</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>6750</v>
       </c>
-      <c r="V190" t="s">
+      <c r="W190" t="s">
         <v>11</v>
       </c>
-      <c r="W190" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X190" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -14881,29 +14889,29 @@
       <c r="P191" t="s">
         <v>10</v>
       </c>
-      <c r="Q191">
+      <c r="R191">
         <v>9500</v>
-      </c>
-      <c r="R191">
-        <v>70</v>
       </c>
       <c r="S191">
         <v>70</v>
       </c>
       <c r="T191">
+        <v>70</v>
+      </c>
+      <c r="U191">
         <v>14500</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>2300</v>
       </c>
-      <c r="V191" t="s">
-        <v>1</v>
-      </c>
       <c r="W191" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X191" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -14952,29 +14960,29 @@
       <c r="P192" t="s">
         <v>10</v>
       </c>
-      <c r="Q192">
+      <c r="R192">
         <v>2500</v>
-      </c>
-      <c r="R192">
-        <v>22</v>
       </c>
       <c r="S192">
         <v>22</v>
       </c>
       <c r="T192">
+        <v>22</v>
+      </c>
+      <c r="U192">
         <v>6000</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>600</v>
       </c>
-      <c r="V192" t="s">
+      <c r="W192" t="s">
         <v>11</v>
       </c>
-      <c r="W192" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X192" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -15023,29 +15031,29 @@
       <c r="P193" t="s">
         <v>1</v>
       </c>
-      <c r="Q193">
+      <c r="R193">
         <v>8000</v>
-      </c>
-      <c r="R193">
-        <v>26</v>
       </c>
       <c r="S193">
         <v>26</v>
       </c>
       <c r="T193">
+        <v>26</v>
+      </c>
+      <c r="U193">
         <v>15600</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>4000</v>
       </c>
-      <c r="V193" t="s">
+      <c r="W193" t="s">
         <v>11</v>
       </c>
-      <c r="W193" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X193" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -15094,29 +15102,29 @@
       <c r="P194" t="s">
         <v>10</v>
       </c>
-      <c r="Q194">
+      <c r="R194">
         <v>6500</v>
-      </c>
-      <c r="R194">
-        <v>38</v>
       </c>
       <c r="S194">
         <v>38</v>
       </c>
       <c r="T194">
+        <v>38</v>
+      </c>
+      <c r="U194">
         <v>8000</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>2000</v>
       </c>
-      <c r="V194" t="s">
-        <v>1</v>
-      </c>
       <c r="W194" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X194" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -15165,29 +15173,29 @@
       <c r="P195" t="s">
         <v>10</v>
       </c>
-      <c r="Q195">
+      <c r="R195">
         <v>10500</v>
-      </c>
-      <c r="R195">
-        <v>66</v>
       </c>
       <c r="S195">
         <v>66</v>
       </c>
       <c r="T195">
+        <v>66</v>
+      </c>
+      <c r="U195">
         <v>13000</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>1800</v>
       </c>
-      <c r="V195" t="s">
-        <v>1</v>
-      </c>
       <c r="W195" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X195" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -15236,29 +15244,29 @@
       <c r="P196" t="s">
         <v>10</v>
       </c>
-      <c r="Q196">
+      <c r="R196">
         <v>6000</v>
-      </c>
-      <c r="R196">
-        <v>25</v>
       </c>
       <c r="S196">
         <v>25</v>
       </c>
       <c r="T196">
+        <v>25</v>
+      </c>
+      <c r="U196">
         <v>10000</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>3200</v>
       </c>
-      <c r="V196" t="s">
-        <v>1</v>
-      </c>
       <c r="W196" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X196" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -15307,29 +15315,29 @@
       <c r="P197" t="s">
         <v>1</v>
       </c>
-      <c r="Q197">
+      <c r="R197">
         <v>10500</v>
-      </c>
-      <c r="R197">
-        <v>62</v>
       </c>
       <c r="S197">
         <v>62</v>
       </c>
       <c r="T197">
+        <v>62</v>
+      </c>
+      <c r="U197">
         <v>25000</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>7000</v>
       </c>
-      <c r="V197" t="s">
+      <c r="W197" t="s">
         <v>11</v>
       </c>
-      <c r="W197" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X197" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -15378,29 +15386,29 @@
       <c r="P198" t="s">
         <v>10</v>
       </c>
-      <c r="Q198">
+      <c r="R198">
         <v>8000</v>
-      </c>
-      <c r="R198">
-        <v>60</v>
       </c>
       <c r="S198">
         <v>60</v>
       </c>
       <c r="T198">
+        <v>60</v>
+      </c>
+      <c r="U198">
         <v>17000</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>2200</v>
       </c>
-      <c r="V198" t="s">
+      <c r="W198" t="s">
         <v>11</v>
       </c>
-      <c r="W198" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X198" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -15449,29 +15457,29 @@
       <c r="P199" t="s">
         <v>10</v>
       </c>
-      <c r="Q199">
+      <c r="R199">
         <v>7500</v>
-      </c>
-      <c r="R199">
-        <v>40</v>
       </c>
       <c r="S199">
         <v>40</v>
       </c>
       <c r="T199">
+        <v>40</v>
+      </c>
+      <c r="U199">
         <v>12000</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>500</v>
       </c>
-      <c r="V199" t="s">
+      <c r="W199" t="s">
         <v>11</v>
       </c>
-      <c r="W199" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X199" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -15520,29 +15528,29 @@
       <c r="P200" t="s">
         <v>10</v>
       </c>
-      <c r="Q200">
+      <c r="R200">
         <v>7000</v>
-      </c>
-      <c r="R200">
-        <v>42</v>
       </c>
       <c r="S200">
         <v>42</v>
       </c>
       <c r="T200">
+        <v>42</v>
+      </c>
+      <c r="U200">
         <v>42000</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>2200</v>
       </c>
-      <c r="V200" t="s">
+      <c r="W200" t="s">
         <v>11</v>
       </c>
-      <c r="W200" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X200" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -15591,29 +15599,29 @@
       <c r="P201" t="s">
         <v>10</v>
       </c>
-      <c r="Q201">
+      <c r="R201">
         <v>7000</v>
-      </c>
-      <c r="R201">
-        <v>42</v>
       </c>
       <c r="S201">
         <v>42</v>
       </c>
       <c r="T201">
+        <v>42</v>
+      </c>
+      <c r="U201">
         <v>42000</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>2100</v>
       </c>
-      <c r="V201" t="s">
+      <c r="W201" t="s">
         <v>11</v>
       </c>
-      <c r="W201" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X201" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -15662,29 +15670,29 @@
       <c r="P202" t="s">
         <v>10</v>
       </c>
-      <c r="Q202">
+      <c r="R202">
         <v>7000</v>
-      </c>
-      <c r="R202">
-        <v>42</v>
       </c>
       <c r="S202">
         <v>42</v>
       </c>
       <c r="T202">
+        <v>42</v>
+      </c>
+      <c r="U202">
         <v>42000</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>2200</v>
       </c>
-      <c r="V202" t="s">
-        <v>1</v>
-      </c>
       <c r="W202" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X202" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -15733,29 +15741,29 @@
       <c r="P203" t="s">
         <v>10</v>
       </c>
-      <c r="Q203">
+      <c r="R203">
         <v>20000</v>
-      </c>
-      <c r="R203">
-        <v>63</v>
       </c>
       <c r="S203">
         <v>63</v>
       </c>
       <c r="T203">
+        <v>63</v>
+      </c>
+      <c r="U203">
         <v>5000</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>2500</v>
       </c>
-      <c r="V203" t="s">
+      <c r="W203" t="s">
         <v>11</v>
       </c>
-      <c r="W203" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X203" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -15804,29 +15812,29 @@
       <c r="P204" t="s">
         <v>1</v>
       </c>
-      <c r="Q204">
+      <c r="R204">
         <v>10000</v>
-      </c>
-      <c r="R204">
-        <v>52</v>
       </c>
       <c r="S204">
         <v>52</v>
       </c>
       <c r="T204">
+        <v>52</v>
+      </c>
+      <c r="U204">
         <v>35000</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>5500</v>
       </c>
-      <c r="V204" t="s">
-        <v>1</v>
-      </c>
       <c r="W204" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X204" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -15875,29 +15883,29 @@
       <c r="P205" t="s">
         <v>10</v>
       </c>
-      <c r="Q205">
+      <c r="R205">
         <v>4000</v>
-      </c>
-      <c r="R205">
-        <v>30</v>
       </c>
       <c r="S205">
         <v>30</v>
       </c>
       <c r="T205">
+        <v>30</v>
+      </c>
+      <c r="U205">
         <v>12000</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>3800</v>
       </c>
-      <c r="V205" t="s">
+      <c r="W205" t="s">
         <v>11</v>
       </c>
-      <c r="W205" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X205" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -15946,29 +15954,29 @@
       <c r="P206" t="s">
         <v>1</v>
       </c>
-      <c r="Q206">
+      <c r="R206">
         <v>10250</v>
-      </c>
-      <c r="R206">
-        <v>48</v>
       </c>
       <c r="S206">
         <v>48</v>
       </c>
       <c r="T206">
+        <v>48</v>
+      </c>
+      <c r="U206">
         <v>40000</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>7350</v>
       </c>
-      <c r="V206" t="s">
-        <v>1</v>
-      </c>
       <c r="W206" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X206" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -16017,29 +16025,29 @@
       <c r="P207" t="s">
         <v>10</v>
       </c>
-      <c r="Q207">
+      <c r="R207">
         <v>3000</v>
-      </c>
-      <c r="R207">
-        <v>30</v>
       </c>
       <c r="S207">
         <v>30</v>
       </c>
       <c r="T207">
+        <v>30</v>
+      </c>
+      <c r="U207">
         <v>21000</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>3000</v>
       </c>
-      <c r="V207" t="s">
-        <v>1</v>
-      </c>
       <c r="W207" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X207" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -16088,29 +16096,29 @@
       <c r="P208" t="s">
         <v>10</v>
       </c>
-      <c r="Q208">
+      <c r="R208">
         <v>8000</v>
-      </c>
-      <c r="R208">
-        <v>45</v>
       </c>
       <c r="S208">
         <v>45</v>
       </c>
       <c r="T208">
+        <v>45</v>
+      </c>
+      <c r="U208">
         <v>16000</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>3000</v>
       </c>
-      <c r="V208" t="s">
-        <v>1</v>
-      </c>
       <c r="W208" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X208" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -16159,29 +16167,29 @@
       <c r="P209" t="s">
         <v>10</v>
       </c>
-      <c r="Q209">
+      <c r="R209">
         <v>4500</v>
-      </c>
-      <c r="R209">
-        <v>40</v>
       </c>
       <c r="S209">
         <v>40</v>
       </c>
       <c r="T209">
+        <v>40</v>
+      </c>
+      <c r="U209">
         <v>12000</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>2000</v>
       </c>
-      <c r="V209" t="s">
-        <v>1</v>
-      </c>
       <c r="W209" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X209" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -16230,29 +16238,29 @@
       <c r="P210" t="s">
         <v>10</v>
       </c>
-      <c r="Q210">
+      <c r="R210">
         <v>7000</v>
-      </c>
-      <c r="R210">
-        <v>38</v>
       </c>
       <c r="S210">
         <v>38</v>
       </c>
       <c r="T210">
+        <v>38</v>
+      </c>
+      <c r="U210">
         <v>20000</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>1800</v>
       </c>
-      <c r="V210" t="s">
+      <c r="W210" t="s">
         <v>11</v>
       </c>
-      <c r="W210" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X210" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -16301,29 +16309,29 @@
       <c r="P211" t="s">
         <v>1</v>
       </c>
-      <c r="Q211">
+      <c r="R211">
         <v>7000</v>
-      </c>
-      <c r="R211">
-        <v>51</v>
       </c>
       <c r="S211">
         <v>51</v>
       </c>
       <c r="T211">
+        <v>51</v>
+      </c>
+      <c r="U211">
         <v>20000</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>6200</v>
       </c>
-      <c r="V211" t="s">
+      <c r="W211" t="s">
         <v>11</v>
       </c>
-      <c r="W211" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X211" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -16372,29 +16380,29 @@
       <c r="P212" t="s">
         <v>1</v>
       </c>
-      <c r="Q212">
+      <c r="R212">
         <v>7500</v>
-      </c>
-      <c r="R212">
-        <v>60</v>
       </c>
       <c r="S212">
         <v>60</v>
       </c>
       <c r="T212">
+        <v>60</v>
+      </c>
+      <c r="U212">
         <v>19000</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>4000</v>
       </c>
-      <c r="V212" t="s">
+      <c r="W212" t="s">
         <v>11</v>
       </c>
-      <c r="W212" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X212" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -16443,29 +16451,29 @@
       <c r="P213" t="s">
         <v>10</v>
       </c>
-      <c r="Q213">
+      <c r="R213">
         <v>6800</v>
-      </c>
-      <c r="R213">
-        <v>39</v>
       </c>
       <c r="S213">
         <v>39</v>
       </c>
       <c r="T213">
+        <v>39</v>
+      </c>
+      <c r="U213">
         <v>40000</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>5900</v>
       </c>
-      <c r="V213" t="s">
-        <v>1</v>
-      </c>
       <c r="W213" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X213" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -16514,29 +16522,29 @@
       <c r="P214" t="s">
         <v>1</v>
       </c>
-      <c r="Q214">
+      <c r="R214">
         <v>4500</v>
-      </c>
-      <c r="R214">
-        <v>35</v>
       </c>
       <c r="S214">
         <v>35</v>
       </c>
       <c r="T214">
+        <v>35</v>
+      </c>
+      <c r="U214">
         <v>16000</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>5100</v>
       </c>
-      <c r="V214" t="s">
+      <c r="W214" t="s">
         <v>11</v>
       </c>
-      <c r="W214" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X214" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -16585,29 +16593,29 @@
       <c r="P215" t="s">
         <v>10</v>
       </c>
-      <c r="Q215">
+      <c r="R215">
         <v>4500</v>
-      </c>
-      <c r="R215">
-        <v>35</v>
       </c>
       <c r="S215">
         <v>35</v>
       </c>
       <c r="T215">
+        <v>35</v>
+      </c>
+      <c r="U215">
         <v>16000</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>3000</v>
       </c>
-      <c r="V215" t="s">
+      <c r="W215" t="s">
         <v>11</v>
       </c>
-      <c r="W215" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X215" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -16656,29 +16664,29 @@
       <c r="P216" t="s">
         <v>10</v>
       </c>
-      <c r="Q216">
+      <c r="R216">
         <v>10000</v>
-      </c>
-      <c r="R216">
-        <v>38</v>
       </c>
       <c r="S216">
         <v>38</v>
       </c>
       <c r="T216">
+        <v>38</v>
+      </c>
+      <c r="U216">
         <v>45000</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>1000</v>
       </c>
-      <c r="V216" t="s">
-        <v>1</v>
-      </c>
       <c r="W216" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X216" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -16727,29 +16735,29 @@
       <c r="P217" t="s">
         <v>10</v>
       </c>
-      <c r="Q217">
+      <c r="R217">
         <v>2000</v>
-      </c>
-      <c r="R217">
-        <v>20</v>
       </c>
       <c r="S217">
         <v>20</v>
       </c>
       <c r="T217">
+        <v>20</v>
+      </c>
+      <c r="U217">
         <v>15000</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>625</v>
       </c>
-      <c r="V217" t="s">
+      <c r="W217" t="s">
         <v>11</v>
       </c>
-      <c r="W217" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X217" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -16798,29 +16806,29 @@
       <c r="P218" t="s">
         <v>10</v>
       </c>
-      <c r="Q218">
+      <c r="R218">
         <v>4000</v>
-      </c>
-      <c r="R218">
-        <v>33</v>
       </c>
       <c r="S218">
         <v>33</v>
       </c>
       <c r="T218">
+        <v>33</v>
+      </c>
+      <c r="U218">
         <v>26000</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>3200</v>
       </c>
-      <c r="V218" t="s">
+      <c r="W218" t="s">
         <v>11</v>
       </c>
-      <c r="W218" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X218" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -16869,29 +16877,29 @@
       <c r="P219" t="s">
         <v>1</v>
       </c>
-      <c r="Q219">
+      <c r="R219">
         <v>9500</v>
-      </c>
-      <c r="R219">
-        <v>40</v>
       </c>
       <c r="S219">
         <v>40</v>
       </c>
       <c r="T219">
+        <v>40</v>
+      </c>
+      <c r="U219">
         <v>35000</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>7000</v>
       </c>
-      <c r="V219" t="s">
-        <v>1</v>
-      </c>
       <c r="W219" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X219" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -16940,29 +16948,29 @@
       <c r="P220" t="s">
         <v>10</v>
       </c>
-      <c r="Q220">
+      <c r="R220">
         <v>9500</v>
-      </c>
-      <c r="R220">
-        <v>41</v>
       </c>
       <c r="S220">
         <v>41</v>
       </c>
       <c r="T220">
+        <v>41</v>
+      </c>
+      <c r="U220">
         <v>35000</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>5200</v>
       </c>
-      <c r="V220" t="s">
+      <c r="W220" t="s">
         <v>11</v>
       </c>
-      <c r="W220" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X220" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -17011,29 +17019,29 @@
       <c r="P221" t="s">
         <v>10</v>
       </c>
-      <c r="Q221">
+      <c r="R221">
         <v>9000</v>
-      </c>
-      <c r="R221">
-        <v>60</v>
       </c>
       <c r="S221">
         <v>60</v>
       </c>
       <c r="T221">
+        <v>60</v>
+      </c>
+      <c r="U221">
         <v>20000</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>500</v>
       </c>
-      <c r="V221" t="s">
-        <v>1</v>
-      </c>
       <c r="W221" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X221" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -17082,29 +17090,29 @@
       <c r="P222" t="s">
         <v>10</v>
       </c>
-      <c r="Q222">
+      <c r="R222">
         <v>5000</v>
-      </c>
-      <c r="R222">
-        <v>42</v>
       </c>
       <c r="S222">
         <v>42</v>
       </c>
       <c r="T222">
+        <v>42</v>
+      </c>
+      <c r="U222">
         <v>28000</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>3500</v>
       </c>
-      <c r="V222" t="s">
+      <c r="W222" t="s">
         <v>11</v>
       </c>
-      <c r="W222" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X222" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -17153,29 +17161,29 @@
       <c r="P223" t="s">
         <v>10</v>
       </c>
-      <c r="Q223">
+      <c r="R223">
         <v>3000</v>
-      </c>
-      <c r="R223">
-        <v>21</v>
       </c>
       <c r="S223">
         <v>21</v>
       </c>
       <c r="T223">
+        <v>21</v>
+      </c>
+      <c r="U223">
         <v>5000</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>2000</v>
       </c>
-      <c r="V223" t="s">
-        <v>1</v>
-      </c>
       <c r="W223" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X223" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -17224,29 +17232,29 @@
       <c r="P224" t="s">
         <v>10</v>
       </c>
-      <c r="Q224">
+      <c r="R224">
         <v>4000</v>
-      </c>
-      <c r="R224">
-        <v>25</v>
       </c>
       <c r="S224">
         <v>25</v>
       </c>
       <c r="T224">
+        <v>25</v>
+      </c>
+      <c r="U224">
         <v>35000</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>1500</v>
       </c>
-      <c r="V224" t="s">
+      <c r="W224" t="s">
         <v>11</v>
       </c>
-      <c r="W224" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X224" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -17295,29 +17303,29 @@
       <c r="P225" t="s">
         <v>10</v>
       </c>
-      <c r="Q225">
+      <c r="R225">
         <v>9000</v>
-      </c>
-      <c r="R225">
-        <v>50</v>
       </c>
       <c r="S225">
         <v>50</v>
       </c>
       <c r="T225">
+        <v>50</v>
+      </c>
+      <c r="U225">
         <v>40000</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>6500</v>
       </c>
-      <c r="V225" t="s">
+      <c r="W225" t="s">
         <v>11</v>
       </c>
-      <c r="W225" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X225" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -17366,29 +17374,29 @@
       <c r="P226" t="s">
         <v>10</v>
       </c>
-      <c r="Q226">
+      <c r="R226">
         <v>8750</v>
-      </c>
-      <c r="R226">
-        <v>52</v>
       </c>
       <c r="S226">
         <v>52</v>
       </c>
       <c r="T226">
+        <v>52</v>
+      </c>
+      <c r="U226">
         <v>14000</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>1500</v>
       </c>
-      <c r="V226" t="s">
+      <c r="W226" t="s">
         <v>11</v>
       </c>
-      <c r="W226" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X226" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -17437,29 +17445,29 @@
       <c r="P227" t="s">
         <v>1</v>
       </c>
-      <c r="Q227">
+      <c r="R227">
         <v>1800</v>
       </c>
-      <c r="R227">
-        <v>10</v>
-      </c>
       <c r="S227">
         <v>10</v>
       </c>
       <c r="T227">
+        <v>10</v>
+      </c>
+      <c r="U227">
         <v>9000</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>13000</v>
       </c>
-      <c r="V227" t="s">
+      <c r="W227" t="s">
         <v>11</v>
       </c>
-      <c r="W227" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X227" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -17508,29 +17516,29 @@
       <c r="P228" t="s">
         <v>1</v>
       </c>
-      <c r="Q228">
+      <c r="R228">
         <v>10000</v>
-      </c>
-      <c r="R228">
-        <v>40</v>
       </c>
       <c r="S228">
         <v>40</v>
       </c>
       <c r="T228">
+        <v>40</v>
+      </c>
+      <c r="U228">
         <v>16000</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>7000</v>
       </c>
-      <c r="V228" t="s">
-        <v>1</v>
-      </c>
       <c r="W228" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X228" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -17579,29 +17587,29 @@
       <c r="P229" t="s">
         <v>10</v>
       </c>
-      <c r="Q229">
+      <c r="R229">
         <v>7000</v>
-      </c>
-      <c r="R229">
-        <v>40</v>
       </c>
       <c r="S229">
         <v>40</v>
       </c>
       <c r="T229">
+        <v>40</v>
+      </c>
+      <c r="U229">
         <v>18200</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <v>2200</v>
       </c>
-      <c r="V229" t="s">
+      <c r="W229" t="s">
         <v>11</v>
       </c>
-      <c r="W229" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X229" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -17650,29 +17658,29 @@
       <c r="P230" t="s">
         <v>1</v>
       </c>
-      <c r="Q230">
+      <c r="R230">
         <v>9500</v>
-      </c>
-      <c r="R230">
-        <v>38</v>
       </c>
       <c r="S230">
         <v>38</v>
       </c>
       <c r="T230">
+        <v>38</v>
+      </c>
+      <c r="U230">
         <v>22000</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>7000</v>
       </c>
-      <c r="V230" t="s">
+      <c r="W230" t="s">
         <v>11</v>
       </c>
-      <c r="W230" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X230" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -17721,29 +17729,29 @@
       <c r="P231" t="s">
         <v>10</v>
       </c>
-      <c r="Q231">
+      <c r="R231">
         <v>21000</v>
-      </c>
-      <c r="R231">
-        <v>65</v>
       </c>
       <c r="S231">
         <v>65</v>
       </c>
       <c r="T231">
+        <v>65</v>
+      </c>
+      <c r="U231">
         <v>65000</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>2200</v>
       </c>
-      <c r="V231" t="s">
+      <c r="W231" t="s">
         <v>11</v>
       </c>
-      <c r="W231" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X231" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -17792,29 +17800,29 @@
       <c r="P232" t="s">
         <v>1</v>
       </c>
-      <c r="Q232">
+      <c r="R232">
         <v>10000</v>
-      </c>
-      <c r="R232">
-        <v>35</v>
       </c>
       <c r="S232">
         <v>35</v>
       </c>
       <c r="T232">
+        <v>35</v>
+      </c>
+      <c r="U232">
         <v>36000</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>7000</v>
       </c>
-      <c r="V232" t="s">
+      <c r="W232" t="s">
         <v>11</v>
       </c>
-      <c r="W232" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X232" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -17863,29 +17871,29 @@
       <c r="P233" t="s">
         <v>10</v>
       </c>
-      <c r="Q233">
+      <c r="R233">
         <v>1500</v>
       </c>
-      <c r="R233">
-        <v>10</v>
-      </c>
       <c r="S233">
         <v>10</v>
       </c>
       <c r="T233">
+        <v>10</v>
+      </c>
+      <c r="U233">
         <v>19000</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <v>1600</v>
       </c>
-      <c r="V233" t="s">
+      <c r="W233" t="s">
         <v>11</v>
       </c>
-      <c r="W233" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X233" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -17934,29 +17942,29 @@
       <c r="P234" t="s">
         <v>1</v>
       </c>
-      <c r="Q234">
+      <c r="R234">
         <v>10000</v>
-      </c>
-      <c r="R234">
-        <v>36</v>
       </c>
       <c r="S234">
         <v>36</v>
       </c>
       <c r="T234">
+        <v>36</v>
+      </c>
+      <c r="U234">
         <v>50000</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>5500</v>
       </c>
-      <c r="V234" t="s">
-        <v>1</v>
-      </c>
       <c r="W234" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X234" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -18005,29 +18013,29 @@
       <c r="P235" t="s">
         <v>10</v>
       </c>
-      <c r="Q235">
+      <c r="R235">
         <v>9500</v>
-      </c>
-      <c r="R235">
-        <v>35</v>
       </c>
       <c r="S235">
         <v>35</v>
       </c>
       <c r="T235">
+        <v>35</v>
+      </c>
+      <c r="U235">
         <v>30000</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <v>5500</v>
       </c>
-      <c r="V235" t="s">
+      <c r="W235" t="s">
         <v>11</v>
       </c>
-      <c r="W235" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X235" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -18076,29 +18084,29 @@
       <c r="P236" t="s">
         <v>10</v>
       </c>
-      <c r="Q236">
+      <c r="R236">
         <v>6000</v>
-      </c>
-      <c r="R236">
-        <v>35</v>
       </c>
       <c r="S236">
         <v>35</v>
       </c>
       <c r="T236">
+        <v>35</v>
+      </c>
+      <c r="U236">
         <v>18000</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>1600</v>
       </c>
-      <c r="V236" t="s">
+      <c r="W236" t="s">
         <v>11</v>
       </c>
-      <c r="W236" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X236" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -18147,25 +18155,25 @@
       <c r="P237" t="s">
         <v>10</v>
       </c>
-      <c r="Q237">
+      <c r="R237">
         <v>3500</v>
-      </c>
-      <c r="R237">
-        <v>20</v>
       </c>
       <c r="S237">
         <v>20</v>
       </c>
       <c r="T237">
+        <v>20</v>
+      </c>
+      <c r="U237">
         <v>17500</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <v>1750</v>
       </c>
-      <c r="V237" t="s">
+      <c r="W237" t="s">
         <v>11</v>
       </c>
-      <c r="W237" t="s">
+      <c r="X237" t="s">
         <v>1</v>
       </c>
     </row>
@@ -18212,9 +18220,9 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
@@ -18225,7 +18233,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18236,7 +18244,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18263,9 +18271,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
@@ -18294,7 +18302,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18323,7 +18331,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18352,7 +18360,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18381,7 +18389,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18422,13 +18430,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13706FE3-B527-47F4-82F2-F6C299FCB0D1}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
@@ -18454,7 +18462,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18480,7 +18488,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18506,7 +18514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
